--- a/examples/protocols/singlecolor-particle-calibration/artifacts/singlecolor-particle-calibration_template.xlsx
+++ b/examples/protocols/singlecolor-particle-calibration/artifacts/singlecolor-particle-calibration_template.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MeasureFluorescence_dataset_0" sheetId="1" state="visible" r:id="rId1"/>
@@ -22,25 +23,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -54,64 +43,9 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="5">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -146,71 +80,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -289,10 +170,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -330,71 +211,69 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -418,53 +297,54 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -474,7 +354,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -483,7 +363,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -492,7 +372,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -500,10 +380,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -532,7 +412,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -545,12 +425,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -582,44 +463,44 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>container</t>
         </is>
       </c>
-      <c r="B1" s="18" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="C1" s="18" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>MeasureFluorescence.measurements.607</t>
         </is>
       </c>
-      <c r="D1" s="18" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>emissionBandpassWidth</t>
         </is>
       </c>
-      <c r="E1" s="18" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>excitationWavelength</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>emissionWavelength</t>
         </is>
       </c>
-      <c r="F1" s="18" t="inlineStr">
-        <is>
-          <t>excitationWavelength</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>calibration plate</t>
         </is>
       </c>
-      <c r="B2" s="18" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>A1</t>
         </is>
@@ -631,18 +512,18 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="n"/>
-      <c r="B3" s="18" t="inlineStr">
+      <c r="A3" s="2" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>A2</t>
         </is>
@@ -654,18 +535,18 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21" t="n"/>
-      <c r="B4" s="18" t="inlineStr">
+      <c r="A4" s="2" t="n"/>
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>A3</t>
         </is>
@@ -677,18 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="21" t="n"/>
-      <c r="B5" s="18" t="inlineStr">
+      <c r="A5" s="2" t="n"/>
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>A4</t>
         </is>
@@ -700,18 +581,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21" t="n"/>
-      <c r="B6" s="18" t="inlineStr">
+      <c r="A6" s="2" t="n"/>
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>A5</t>
         </is>
@@ -723,18 +604,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="21" t="n"/>
-      <c r="B7" s="18" t="inlineStr">
+      <c r="A7" s="2" t="n"/>
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>A6</t>
         </is>
@@ -746,18 +627,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="21" t="n"/>
-      <c r="B8" s="18" t="inlineStr">
+      <c r="A8" s="2" t="n"/>
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>A7</t>
         </is>
@@ -769,18 +650,18 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="21" t="n"/>
-      <c r="B9" s="18" t="inlineStr">
+      <c r="A9" s="2" t="n"/>
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>A8</t>
         </is>
@@ -792,18 +673,18 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="21" t="n"/>
-      <c r="B10" s="18" t="inlineStr">
+      <c r="A10" s="2" t="n"/>
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>A9</t>
         </is>
@@ -815,18 +696,18 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="21" t="n"/>
-      <c r="B11" s="18" t="inlineStr">
+      <c r="A11" s="2" t="n"/>
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>A10</t>
         </is>
@@ -838,18 +719,18 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="21" t="n"/>
-      <c r="B12" s="18" t="inlineStr">
+      <c r="A12" s="2" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>A11</t>
         </is>
@@ -861,18 +742,18 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="21" t="n"/>
-      <c r="B13" s="18" t="inlineStr">
+      <c r="A13" s="2" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>A12</t>
         </is>
@@ -884,18 +765,18 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="21" t="n"/>
-      <c r="B14" s="18" t="inlineStr">
+      <c r="A14" s="2" t="n"/>
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
@@ -907,18 +788,18 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="21" t="n"/>
-      <c r="B15" s="18" t="inlineStr">
+      <c r="A15" s="2" t="n"/>
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
@@ -930,18 +811,18 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="21" t="n"/>
-      <c r="B16" s="18" t="inlineStr">
+      <c r="A16" s="2" t="n"/>
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>B3</t>
         </is>
@@ -953,18 +834,18 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="21" t="n"/>
-      <c r="B17" s="18" t="inlineStr">
+      <c r="A17" s="2" t="n"/>
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>B4</t>
         </is>
@@ -976,18 +857,18 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="21" t="n"/>
-      <c r="B18" s="18" t="inlineStr">
+      <c r="A18" s="2" t="n"/>
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>B5</t>
         </is>
@@ -999,18 +880,18 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="21" t="n"/>
-      <c r="B19" s="18" t="inlineStr">
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>B6</t>
         </is>
@@ -1022,18 +903,18 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="21" t="n"/>
-      <c r="B20" s="18" t="inlineStr">
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
@@ -1045,18 +926,18 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="21" t="n"/>
-      <c r="B21" s="18" t="inlineStr">
+      <c r="A21" s="2" t="n"/>
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>B8</t>
         </is>
@@ -1068,18 +949,18 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="21" t="n"/>
-      <c r="B22" s="18" t="inlineStr">
+      <c r="A22" s="2" t="n"/>
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>B9</t>
         </is>
@@ -1091,18 +972,18 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="21" t="n"/>
-      <c r="B23" s="18" t="inlineStr">
+      <c r="A23" s="2" t="n"/>
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>B10</t>
         </is>
@@ -1114,18 +995,18 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="21" t="n"/>
-      <c r="B24" s="18" t="inlineStr">
+      <c r="A24" s="2" t="n"/>
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>B11</t>
         </is>
@@ -1137,18 +1018,18 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="21" t="n"/>
-      <c r="B25" s="18" t="inlineStr">
+      <c r="A25" s="2" t="n"/>
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>B12</t>
         </is>
@@ -1160,18 +1041,18 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="21" t="n"/>
-      <c r="B26" s="18" t="inlineStr">
+      <c r="A26" s="2" t="n"/>
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>C1</t>
         </is>
@@ -1183,18 +1064,18 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="21" t="n"/>
-      <c r="B27" s="18" t="inlineStr">
+      <c r="A27" s="2" t="n"/>
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>C2</t>
         </is>
@@ -1206,18 +1087,18 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="21" t="n"/>
-      <c r="B28" s="18" t="inlineStr">
+      <c r="A28" s="2" t="n"/>
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
@@ -1229,18 +1110,18 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="21" t="n"/>
-      <c r="B29" s="18" t="inlineStr">
+      <c r="A29" s="2" t="n"/>
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>C4</t>
         </is>
@@ -1252,18 +1133,18 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="21" t="n"/>
-      <c r="B30" s="18" t="inlineStr">
+      <c r="A30" s="2" t="n"/>
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>C5</t>
         </is>
@@ -1275,18 +1156,18 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="21" t="n"/>
-      <c r="B31" s="18" t="inlineStr">
+      <c r="A31" s="2" t="n"/>
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>C6</t>
         </is>
@@ -1298,18 +1179,18 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="21" t="n"/>
-      <c r="B32" s="18" t="inlineStr">
+      <c r="A32" s="2" t="n"/>
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>C7</t>
         </is>
@@ -1321,18 +1202,18 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="21" t="n"/>
-      <c r="B33" s="18" t="inlineStr">
+      <c r="A33" s="2" t="n"/>
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>C8</t>
         </is>
@@ -1344,18 +1225,18 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="21" t="n"/>
-      <c r="B34" s="18" t="inlineStr">
+      <c r="A34" s="2" t="n"/>
+      <c r="B34" s="1" t="inlineStr">
         <is>
           <t>C9</t>
         </is>
@@ -1367,18 +1248,18 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="21" t="n"/>
-      <c r="B35" s="18" t="inlineStr">
+      <c r="A35" s="2" t="n"/>
+      <c r="B35" s="1" t="inlineStr">
         <is>
           <t>C10</t>
         </is>
@@ -1390,18 +1271,18 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="21" t="n"/>
-      <c r="B36" s="18" t="inlineStr">
+      <c r="A36" s="2" t="n"/>
+      <c r="B36" s="1" t="inlineStr">
         <is>
           <t>C11</t>
         </is>
@@ -1413,18 +1294,18 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="21" t="n"/>
-      <c r="B37" s="18" t="inlineStr">
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="1" t="inlineStr">
         <is>
           <t>C12</t>
         </is>
@@ -1436,18 +1317,18 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="21" t="n"/>
-      <c r="B38" s="18" t="inlineStr">
+      <c r="A38" s="2" t="n"/>
+      <c r="B38" s="1" t="inlineStr">
         <is>
           <t>D1</t>
         </is>
@@ -1459,18 +1340,18 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="21" t="n"/>
-      <c r="B39" s="18" t="inlineStr">
+      <c r="A39" s="2" t="n"/>
+      <c r="B39" s="1" t="inlineStr">
         <is>
           <t>D2</t>
         </is>
@@ -1482,18 +1363,18 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="21" t="n"/>
-      <c r="B40" s="18" t="inlineStr">
+      <c r="A40" s="2" t="n"/>
+      <c r="B40" s="1" t="inlineStr">
         <is>
           <t>D3</t>
         </is>
@@ -1505,18 +1386,18 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="21" t="n"/>
-      <c r="B41" s="18" t="inlineStr">
+      <c r="A41" s="2" t="n"/>
+      <c r="B41" s="1" t="inlineStr">
         <is>
           <t>D4</t>
         </is>
@@ -1528,18 +1409,18 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="21" t="n"/>
-      <c r="B42" s="18" t="inlineStr">
+      <c r="A42" s="2" t="n"/>
+      <c r="B42" s="1" t="inlineStr">
         <is>
           <t>D5</t>
         </is>
@@ -1551,18 +1432,18 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="21" t="n"/>
-      <c r="B43" s="18" t="inlineStr">
+      <c r="A43" s="2" t="n"/>
+      <c r="B43" s="1" t="inlineStr">
         <is>
           <t>D6</t>
         </is>
@@ -1574,18 +1455,18 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="21" t="n"/>
-      <c r="B44" s="18" t="inlineStr">
+      <c r="A44" s="2" t="n"/>
+      <c r="B44" s="1" t="inlineStr">
         <is>
           <t>D7</t>
         </is>
@@ -1597,18 +1478,18 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="21" t="n"/>
-      <c r="B45" s="18" t="inlineStr">
+      <c r="A45" s="2" t="n"/>
+      <c r="B45" s="1" t="inlineStr">
         <is>
           <t>D8</t>
         </is>
@@ -1620,18 +1501,18 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="21" t="n"/>
-      <c r="B46" s="18" t="inlineStr">
+      <c r="A46" s="2" t="n"/>
+      <c r="B46" s="1" t="inlineStr">
         <is>
           <t>D9</t>
         </is>
@@ -1643,18 +1524,18 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="21" t="n"/>
-      <c r="B47" s="18" t="inlineStr">
+      <c r="A47" s="2" t="n"/>
+      <c r="B47" s="1" t="inlineStr">
         <is>
           <t>D10</t>
         </is>
@@ -1666,18 +1547,18 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="21" t="n"/>
-      <c r="B48" s="18" t="inlineStr">
+      <c r="A48" s="2" t="n"/>
+      <c r="B48" s="1" t="inlineStr">
         <is>
           <t>D11</t>
         </is>
@@ -1689,18 +1570,18 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="22" t="n"/>
-      <c r="B49" s="18" t="inlineStr">
+      <c r="A49" s="3" t="n"/>
+      <c r="B49" s="1" t="inlineStr">
         <is>
           <t>D12</t>
         </is>
@@ -1712,12 +1593,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
     </row>
@@ -1744,405 +1625,405 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>container</t>
         </is>
       </c>
-      <c r="B1" s="18" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="C1" s="18" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>MeasureFluorescence.measurements.607</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>calibration plate</t>
         </is>
       </c>
-      <c r="B2" s="18" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>A1</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="n"/>
-      <c r="B3" s="18" t="inlineStr">
+      <c r="A3" s="2" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>A2</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21" t="n"/>
-      <c r="B4" s="18" t="inlineStr">
+      <c r="A4" s="2" t="n"/>
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>A3</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="21" t="n"/>
-      <c r="B5" s="18" t="inlineStr">
+      <c r="A5" s="2" t="n"/>
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>A4</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21" t="n"/>
-      <c r="B6" s="18" t="inlineStr">
+      <c r="A6" s="2" t="n"/>
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>A5</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="21" t="n"/>
-      <c r="B7" s="18" t="inlineStr">
+      <c r="A7" s="2" t="n"/>
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>A6</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="21" t="n"/>
-      <c r="B8" s="18" t="inlineStr">
+      <c r="A8" s="2" t="n"/>
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>A7</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="21" t="n"/>
-      <c r="B9" s="18" t="inlineStr">
+      <c r="A9" s="2" t="n"/>
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>A8</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="21" t="n"/>
-      <c r="B10" s="18" t="inlineStr">
+      <c r="A10" s="2" t="n"/>
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>A9</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="21" t="n"/>
-      <c r="B11" s="18" t="inlineStr">
+      <c r="A11" s="2" t="n"/>
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>A10</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="21" t="n"/>
-      <c r="B12" s="18" t="inlineStr">
+      <c r="A12" s="2" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>A11</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="21" t="n"/>
-      <c r="B13" s="18" t="inlineStr">
+      <c r="A13" s="2" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>A12</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="21" t="n"/>
-      <c r="B14" s="18" t="inlineStr">
+      <c r="A14" s="2" t="n"/>
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="21" t="n"/>
-      <c r="B15" s="18" t="inlineStr">
+      <c r="A15" s="2" t="n"/>
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="21" t="n"/>
-      <c r="B16" s="18" t="inlineStr">
+      <c r="A16" s="2" t="n"/>
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>B3</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="21" t="n"/>
-      <c r="B17" s="18" t="inlineStr">
+      <c r="A17" s="2" t="n"/>
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>B4</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="21" t="n"/>
-      <c r="B18" s="18" t="inlineStr">
+      <c r="A18" s="2" t="n"/>
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>B5</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="21" t="n"/>
-      <c r="B19" s="18" t="inlineStr">
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>B6</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="21" t="n"/>
-      <c r="B20" s="18" t="inlineStr">
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="21" t="n"/>
-      <c r="B21" s="18" t="inlineStr">
+      <c r="A21" s="2" t="n"/>
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>B8</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="21" t="n"/>
-      <c r="B22" s="18" t="inlineStr">
+      <c r="A22" s="2" t="n"/>
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>B9</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="21" t="n"/>
-      <c r="B23" s="18" t="inlineStr">
+      <c r="A23" s="2" t="n"/>
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>B10</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="21" t="n"/>
-      <c r="B24" s="18" t="inlineStr">
+      <c r="A24" s="2" t="n"/>
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>B11</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="21" t="n"/>
-      <c r="B25" s="18" t="inlineStr">
+      <c r="A25" s="2" t="n"/>
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>B12</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="21" t="n"/>
-      <c r="B26" s="18" t="inlineStr">
+      <c r="A26" s="2" t="n"/>
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>C1</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="21" t="n"/>
-      <c r="B27" s="18" t="inlineStr">
+      <c r="A27" s="2" t="n"/>
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>C2</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="21" t="n"/>
-      <c r="B28" s="18" t="inlineStr">
+      <c r="A28" s="2" t="n"/>
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="21" t="n"/>
-      <c r="B29" s="18" t="inlineStr">
+      <c r="A29" s="2" t="n"/>
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>C4</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="21" t="n"/>
-      <c r="B30" s="18" t="inlineStr">
+      <c r="A30" s="2" t="n"/>
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>C5</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="21" t="n"/>
-      <c r="B31" s="18" t="inlineStr">
+      <c r="A31" s="2" t="n"/>
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>C6</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="21" t="n"/>
-      <c r="B32" s="18" t="inlineStr">
+      <c r="A32" s="2" t="n"/>
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>C7</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="21" t="n"/>
-      <c r="B33" s="18" t="inlineStr">
+      <c r="A33" s="2" t="n"/>
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>C8</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="21" t="n"/>
-      <c r="B34" s="18" t="inlineStr">
+      <c r="A34" s="2" t="n"/>
+      <c r="B34" s="1" t="inlineStr">
         <is>
           <t>C9</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="21" t="n"/>
-      <c r="B35" s="18" t="inlineStr">
+      <c r="A35" s="2" t="n"/>
+      <c r="B35" s="1" t="inlineStr">
         <is>
           <t>C10</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="21" t="n"/>
-      <c r="B36" s="18" t="inlineStr">
+      <c r="A36" s="2" t="n"/>
+      <c r="B36" s="1" t="inlineStr">
         <is>
           <t>C11</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="21" t="n"/>
-      <c r="B37" s="18" t="inlineStr">
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="1" t="inlineStr">
         <is>
           <t>C12</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="21" t="n"/>
-      <c r="B38" s="18" t="inlineStr">
+      <c r="A38" s="2" t="n"/>
+      <c r="B38" s="1" t="inlineStr">
         <is>
           <t>D1</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="21" t="n"/>
-      <c r="B39" s="18" t="inlineStr">
+      <c r="A39" s="2" t="n"/>
+      <c r="B39" s="1" t="inlineStr">
         <is>
           <t>D2</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="21" t="n"/>
-      <c r="B40" s="18" t="inlineStr">
+      <c r="A40" s="2" t="n"/>
+      <c r="B40" s="1" t="inlineStr">
         <is>
           <t>D3</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="21" t="n"/>
-      <c r="B41" s="18" t="inlineStr">
+      <c r="A41" s="2" t="n"/>
+      <c r="B41" s="1" t="inlineStr">
         <is>
           <t>D4</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="21" t="n"/>
-      <c r="B42" s="18" t="inlineStr">
+      <c r="A42" s="2" t="n"/>
+      <c r="B42" s="1" t="inlineStr">
         <is>
           <t>D5</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="21" t="n"/>
-      <c r="B43" s="18" t="inlineStr">
+      <c r="A43" s="2" t="n"/>
+      <c r="B43" s="1" t="inlineStr">
         <is>
           <t>D6</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="21" t="n"/>
-      <c r="B44" s="18" t="inlineStr">
+      <c r="A44" s="2" t="n"/>
+      <c r="B44" s="1" t="inlineStr">
         <is>
           <t>D7</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="21" t="n"/>
-      <c r="B45" s="18" t="inlineStr">
+      <c r="A45" s="2" t="n"/>
+      <c r="B45" s="1" t="inlineStr">
         <is>
           <t>D8</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="21" t="n"/>
-      <c r="B46" s="18" t="inlineStr">
+      <c r="A46" s="2" t="n"/>
+      <c r="B46" s="1" t="inlineStr">
         <is>
           <t>D9</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="21" t="n"/>
-      <c r="B47" s="18" t="inlineStr">
+      <c r="A47" s="2" t="n"/>
+      <c r="B47" s="1" t="inlineStr">
         <is>
           <t>D10</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="21" t="n"/>
-      <c r="B48" s="18" t="inlineStr">
+      <c r="A48" s="2" t="n"/>
+      <c r="B48" s="1" t="inlineStr">
         <is>
           <t>D11</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="22" t="n"/>
-      <c r="B49" s="18" t="inlineStr">
+      <c r="A49" s="3" t="n"/>
+      <c r="B49" s="1" t="inlineStr">
         <is>
           <t>D12</t>
         </is>
@@ -2171,34 +2052,34 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>container</t>
         </is>
       </c>
-      <c r="B1" s="18" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="C1" s="18" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>MeasureAbsorbance.measurements.916</t>
         </is>
       </c>
-      <c r="D1" s="18" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>wavelength</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>calibration plate</t>
         </is>
       </c>
-      <c r="B2" s="18" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>E1</t>
         </is>
@@ -2210,8 +2091,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="n"/>
-      <c r="B3" s="18" t="inlineStr">
+      <c r="A3" s="2" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>E2</t>
         </is>
@@ -2223,8 +2104,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21" t="n"/>
-      <c r="B4" s="18" t="inlineStr">
+      <c r="A4" s="2" t="n"/>
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>E3</t>
         </is>
@@ -2236,8 +2117,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="21" t="n"/>
-      <c r="B5" s="18" t="inlineStr">
+      <c r="A5" s="2" t="n"/>
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>E4</t>
         </is>
@@ -2249,8 +2130,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21" t="n"/>
-      <c r="B6" s="18" t="inlineStr">
+      <c r="A6" s="2" t="n"/>
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>E5</t>
         </is>
@@ -2262,8 +2143,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="21" t="n"/>
-      <c r="B7" s="18" t="inlineStr">
+      <c r="A7" s="2" t="n"/>
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>E6</t>
         </is>
@@ -2275,8 +2156,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="21" t="n"/>
-      <c r="B8" s="18" t="inlineStr">
+      <c r="A8" s="2" t="n"/>
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>E7</t>
         </is>
@@ -2288,8 +2169,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="21" t="n"/>
-      <c r="B9" s="18" t="inlineStr">
+      <c r="A9" s="2" t="n"/>
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>E8</t>
         </is>
@@ -2301,8 +2182,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="21" t="n"/>
-      <c r="B10" s="18" t="inlineStr">
+      <c r="A10" s="2" t="n"/>
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>E9</t>
         </is>
@@ -2314,8 +2195,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="21" t="n"/>
-      <c r="B11" s="18" t="inlineStr">
+      <c r="A11" s="2" t="n"/>
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>E10</t>
         </is>
@@ -2327,8 +2208,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="21" t="n"/>
-      <c r="B12" s="18" t="inlineStr">
+      <c r="A12" s="2" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>E11</t>
         </is>
@@ -2340,8 +2221,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="21" t="n"/>
-      <c r="B13" s="18" t="inlineStr">
+      <c r="A13" s="2" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>E12</t>
         </is>
@@ -2353,8 +2234,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="21" t="n"/>
-      <c r="B14" s="18" t="inlineStr">
+      <c r="A14" s="2" t="n"/>
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>F1</t>
         </is>
@@ -2366,8 +2247,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="21" t="n"/>
-      <c r="B15" s="18" t="inlineStr">
+      <c r="A15" s="2" t="n"/>
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>F2</t>
         </is>
@@ -2379,8 +2260,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="21" t="n"/>
-      <c r="B16" s="18" t="inlineStr">
+      <c r="A16" s="2" t="n"/>
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>F3</t>
         </is>
@@ -2392,8 +2273,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="21" t="n"/>
-      <c r="B17" s="18" t="inlineStr">
+      <c r="A17" s="2" t="n"/>
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>F4</t>
         </is>
@@ -2405,8 +2286,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="21" t="n"/>
-      <c r="B18" s="18" t="inlineStr">
+      <c r="A18" s="2" t="n"/>
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>F5</t>
         </is>
@@ -2418,8 +2299,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="21" t="n"/>
-      <c r="B19" s="18" t="inlineStr">
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>F6</t>
         </is>
@@ -2431,8 +2312,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="21" t="n"/>
-      <c r="B20" s="18" t="inlineStr">
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>F7</t>
         </is>
@@ -2444,8 +2325,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="21" t="n"/>
-      <c r="B21" s="18" t="inlineStr">
+      <c r="A21" s="2" t="n"/>
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>F8</t>
         </is>
@@ -2457,8 +2338,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="21" t="n"/>
-      <c r="B22" s="18" t="inlineStr">
+      <c r="A22" s="2" t="n"/>
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>F9</t>
         </is>
@@ -2470,8 +2351,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="21" t="n"/>
-      <c r="B23" s="18" t="inlineStr">
+      <c r="A23" s="2" t="n"/>
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>F10</t>
         </is>
@@ -2483,8 +2364,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="21" t="n"/>
-      <c r="B24" s="18" t="inlineStr">
+      <c r="A24" s="2" t="n"/>
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>F11</t>
         </is>
@@ -2496,8 +2377,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="21" t="n"/>
-      <c r="B25" s="18" t="inlineStr">
+      <c r="A25" s="2" t="n"/>
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>F12</t>
         </is>
@@ -2509,8 +2390,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="21" t="n"/>
-      <c r="B26" s="18" t="inlineStr">
+      <c r="A26" s="2" t="n"/>
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>G1</t>
         </is>
@@ -2522,8 +2403,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="21" t="n"/>
-      <c r="B27" s="18" t="inlineStr">
+      <c r="A27" s="2" t="n"/>
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>G2</t>
         </is>
@@ -2535,8 +2416,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="21" t="n"/>
-      <c r="B28" s="18" t="inlineStr">
+      <c r="A28" s="2" t="n"/>
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>G3</t>
         </is>
@@ -2548,8 +2429,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="21" t="n"/>
-      <c r="B29" s="18" t="inlineStr">
+      <c r="A29" s="2" t="n"/>
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>G4</t>
         </is>
@@ -2561,8 +2442,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="21" t="n"/>
-      <c r="B30" s="18" t="inlineStr">
+      <c r="A30" s="2" t="n"/>
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>G5</t>
         </is>
@@ -2574,8 +2455,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="21" t="n"/>
-      <c r="B31" s="18" t="inlineStr">
+      <c r="A31" s="2" t="n"/>
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>G6</t>
         </is>
@@ -2587,8 +2468,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="21" t="n"/>
-      <c r="B32" s="18" t="inlineStr">
+      <c r="A32" s="2" t="n"/>
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>G7</t>
         </is>
@@ -2600,8 +2481,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="21" t="n"/>
-      <c r="B33" s="18" t="inlineStr">
+      <c r="A33" s="2" t="n"/>
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>G8</t>
         </is>
@@ -2613,8 +2494,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="21" t="n"/>
-      <c r="B34" s="18" t="inlineStr">
+      <c r="A34" s="2" t="n"/>
+      <c r="B34" s="1" t="inlineStr">
         <is>
           <t>G9</t>
         </is>
@@ -2626,8 +2507,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="21" t="n"/>
-      <c r="B35" s="18" t="inlineStr">
+      <c r="A35" s="2" t="n"/>
+      <c r="B35" s="1" t="inlineStr">
         <is>
           <t>G10</t>
         </is>
@@ -2639,8 +2520,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="21" t="n"/>
-      <c r="B36" s="18" t="inlineStr">
+      <c r="A36" s="2" t="n"/>
+      <c r="B36" s="1" t="inlineStr">
         <is>
           <t>G11</t>
         </is>
@@ -2652,8 +2533,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="21" t="n"/>
-      <c r="B37" s="18" t="inlineStr">
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="1" t="inlineStr">
         <is>
           <t>G12</t>
         </is>
@@ -2665,8 +2546,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="21" t="n"/>
-      <c r="B38" s="18" t="inlineStr">
+      <c r="A38" s="2" t="n"/>
+      <c r="B38" s="1" t="inlineStr">
         <is>
           <t>H1</t>
         </is>
@@ -2678,8 +2559,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="21" t="n"/>
-      <c r="B39" s="18" t="inlineStr">
+      <c r="A39" s="2" t="n"/>
+      <c r="B39" s="1" t="inlineStr">
         <is>
           <t>H2</t>
         </is>
@@ -2691,8 +2572,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="21" t="n"/>
-      <c r="B40" s="18" t="inlineStr">
+      <c r="A40" s="2" t="n"/>
+      <c r="B40" s="1" t="inlineStr">
         <is>
           <t>H3</t>
         </is>
@@ -2704,8 +2585,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="21" t="n"/>
-      <c r="B41" s="18" t="inlineStr">
+      <c r="A41" s="2" t="n"/>
+      <c r="B41" s="1" t="inlineStr">
         <is>
           <t>H4</t>
         </is>
@@ -2717,8 +2598,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="21" t="n"/>
-      <c r="B42" s="18" t="inlineStr">
+      <c r="A42" s="2" t="n"/>
+      <c r="B42" s="1" t="inlineStr">
         <is>
           <t>H5</t>
         </is>
@@ -2730,8 +2611,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="21" t="n"/>
-      <c r="B43" s="18" t="inlineStr">
+      <c r="A43" s="2" t="n"/>
+      <c r="B43" s="1" t="inlineStr">
         <is>
           <t>H6</t>
         </is>
@@ -2743,8 +2624,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="21" t="n"/>
-      <c r="B44" s="18" t="inlineStr">
+      <c r="A44" s="2" t="n"/>
+      <c r="B44" s="1" t="inlineStr">
         <is>
           <t>H7</t>
         </is>
@@ -2756,8 +2637,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="21" t="n"/>
-      <c r="B45" s="18" t="inlineStr">
+      <c r="A45" s="2" t="n"/>
+      <c r="B45" s="1" t="inlineStr">
         <is>
           <t>H8</t>
         </is>
@@ -2769,8 +2650,8 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="21" t="n"/>
-      <c r="B46" s="18" t="inlineStr">
+      <c r="A46" s="2" t="n"/>
+      <c r="B46" s="1" t="inlineStr">
         <is>
           <t>H9</t>
         </is>
@@ -2782,8 +2663,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="21" t="n"/>
-      <c r="B47" s="18" t="inlineStr">
+      <c r="A47" s="2" t="n"/>
+      <c r="B47" s="1" t="inlineStr">
         <is>
           <t>H10</t>
         </is>
@@ -2795,8 +2676,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="21" t="n"/>
-      <c r="B48" s="18" t="inlineStr">
+      <c r="A48" s="2" t="n"/>
+      <c r="B48" s="1" t="inlineStr">
         <is>
           <t>H11</t>
         </is>
@@ -2808,8 +2689,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="22" t="n"/>
-      <c r="B49" s="18" t="inlineStr">
+      <c r="A49" s="3" t="n"/>
+      <c r="B49" s="1" t="inlineStr">
         <is>
           <t>H12</t>
         </is>
@@ -2843,405 +2724,405 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>container</t>
         </is>
       </c>
-      <c r="B1" s="18" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="C1" s="18" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>MeasureAbsorbance.measurements.916</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>calibration plate</t>
         </is>
       </c>
-      <c r="B2" s="18" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>E1</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="n"/>
-      <c r="B3" s="18" t="inlineStr">
+      <c r="A3" s="2" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>E2</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21" t="n"/>
-      <c r="B4" s="18" t="inlineStr">
+      <c r="A4" s="2" t="n"/>
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>E3</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="21" t="n"/>
-      <c r="B5" s="18" t="inlineStr">
+      <c r="A5" s="2" t="n"/>
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>E4</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21" t="n"/>
-      <c r="B6" s="18" t="inlineStr">
+      <c r="A6" s="2" t="n"/>
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>E5</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="21" t="n"/>
-      <c r="B7" s="18" t="inlineStr">
+      <c r="A7" s="2" t="n"/>
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>E6</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="21" t="n"/>
-      <c r="B8" s="18" t="inlineStr">
+      <c r="A8" s="2" t="n"/>
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>E7</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="21" t="n"/>
-      <c r="B9" s="18" t="inlineStr">
+      <c r="A9" s="2" t="n"/>
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>E8</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="21" t="n"/>
-      <c r="B10" s="18" t="inlineStr">
+      <c r="A10" s="2" t="n"/>
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>E9</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="21" t="n"/>
-      <c r="B11" s="18" t="inlineStr">
+      <c r="A11" s="2" t="n"/>
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>E10</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="21" t="n"/>
-      <c r="B12" s="18" t="inlineStr">
+      <c r="A12" s="2" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>E11</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="21" t="n"/>
-      <c r="B13" s="18" t="inlineStr">
+      <c r="A13" s="2" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>E12</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="21" t="n"/>
-      <c r="B14" s="18" t="inlineStr">
+      <c r="A14" s="2" t="n"/>
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>F1</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="21" t="n"/>
-      <c r="B15" s="18" t="inlineStr">
+      <c r="A15" s="2" t="n"/>
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>F2</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="21" t="n"/>
-      <c r="B16" s="18" t="inlineStr">
+      <c r="A16" s="2" t="n"/>
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>F3</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="21" t="n"/>
-      <c r="B17" s="18" t="inlineStr">
+      <c r="A17" s="2" t="n"/>
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>F4</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="21" t="n"/>
-      <c r="B18" s="18" t="inlineStr">
+      <c r="A18" s="2" t="n"/>
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>F5</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="21" t="n"/>
-      <c r="B19" s="18" t="inlineStr">
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>F6</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="21" t="n"/>
-      <c r="B20" s="18" t="inlineStr">
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>F7</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="21" t="n"/>
-      <c r="B21" s="18" t="inlineStr">
+      <c r="A21" s="2" t="n"/>
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>F8</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="21" t="n"/>
-      <c r="B22" s="18" t="inlineStr">
+      <c r="A22" s="2" t="n"/>
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>F9</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="21" t="n"/>
-      <c r="B23" s="18" t="inlineStr">
+      <c r="A23" s="2" t="n"/>
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>F10</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="21" t="n"/>
-      <c r="B24" s="18" t="inlineStr">
+      <c r="A24" s="2" t="n"/>
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>F11</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="21" t="n"/>
-      <c r="B25" s="18" t="inlineStr">
+      <c r="A25" s="2" t="n"/>
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>F12</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="21" t="n"/>
-      <c r="B26" s="18" t="inlineStr">
+      <c r="A26" s="2" t="n"/>
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>G1</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="21" t="n"/>
-      <c r="B27" s="18" t="inlineStr">
+      <c r="A27" s="2" t="n"/>
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>G2</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="21" t="n"/>
-      <c r="B28" s="18" t="inlineStr">
+      <c r="A28" s="2" t="n"/>
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>G3</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="21" t="n"/>
-      <c r="B29" s="18" t="inlineStr">
+      <c r="A29" s="2" t="n"/>
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>G4</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="21" t="n"/>
-      <c r="B30" s="18" t="inlineStr">
+      <c r="A30" s="2" t="n"/>
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>G5</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="21" t="n"/>
-      <c r="B31" s="18" t="inlineStr">
+      <c r="A31" s="2" t="n"/>
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>G6</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="21" t="n"/>
-      <c r="B32" s="18" t="inlineStr">
+      <c r="A32" s="2" t="n"/>
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>G7</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="21" t="n"/>
-      <c r="B33" s="18" t="inlineStr">
+      <c r="A33" s="2" t="n"/>
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>G8</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="21" t="n"/>
-      <c r="B34" s="18" t="inlineStr">
+      <c r="A34" s="2" t="n"/>
+      <c r="B34" s="1" t="inlineStr">
         <is>
           <t>G9</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="21" t="n"/>
-      <c r="B35" s="18" t="inlineStr">
+      <c r="A35" s="2" t="n"/>
+      <c r="B35" s="1" t="inlineStr">
         <is>
           <t>G10</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="21" t="n"/>
-      <c r="B36" s="18" t="inlineStr">
+      <c r="A36" s="2" t="n"/>
+      <c r="B36" s="1" t="inlineStr">
         <is>
           <t>G11</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="21" t="n"/>
-      <c r="B37" s="18" t="inlineStr">
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="1" t="inlineStr">
         <is>
           <t>G12</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="21" t="n"/>
-      <c r="B38" s="18" t="inlineStr">
+      <c r="A38" s="2" t="n"/>
+      <c r="B38" s="1" t="inlineStr">
         <is>
           <t>H1</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="21" t="n"/>
-      <c r="B39" s="18" t="inlineStr">
+      <c r="A39" s="2" t="n"/>
+      <c r="B39" s="1" t="inlineStr">
         <is>
           <t>H2</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="21" t="n"/>
-      <c r="B40" s="18" t="inlineStr">
+      <c r="A40" s="2" t="n"/>
+      <c r="B40" s="1" t="inlineStr">
         <is>
           <t>H3</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="21" t="n"/>
-      <c r="B41" s="18" t="inlineStr">
+      <c r="A41" s="2" t="n"/>
+      <c r="B41" s="1" t="inlineStr">
         <is>
           <t>H4</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="21" t="n"/>
-      <c r="B42" s="18" t="inlineStr">
+      <c r="A42" s="2" t="n"/>
+      <c r="B42" s="1" t="inlineStr">
         <is>
           <t>H5</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="21" t="n"/>
-      <c r="B43" s="18" t="inlineStr">
+      <c r="A43" s="2" t="n"/>
+      <c r="B43" s="1" t="inlineStr">
         <is>
           <t>H6</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="21" t="n"/>
-      <c r="B44" s="18" t="inlineStr">
+      <c r="A44" s="2" t="n"/>
+      <c r="B44" s="1" t="inlineStr">
         <is>
           <t>H7</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="21" t="n"/>
-      <c r="B45" s="18" t="inlineStr">
+      <c r="A45" s="2" t="n"/>
+      <c r="B45" s="1" t="inlineStr">
         <is>
           <t>H8</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="21" t="n"/>
-      <c r="B46" s="18" t="inlineStr">
+      <c r="A46" s="2" t="n"/>
+      <c r="B46" s="1" t="inlineStr">
         <is>
           <t>H9</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="21" t="n"/>
-      <c r="B47" s="18" t="inlineStr">
+      <c r="A47" s="2" t="n"/>
+      <c r="B47" s="1" t="inlineStr">
         <is>
           <t>H10</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="21" t="n"/>
-      <c r="B48" s="18" t="inlineStr">
+      <c r="A48" s="2" t="n"/>
+      <c r="B48" s="1" t="inlineStr">
         <is>
           <t>H11</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="22" t="n"/>
-      <c r="B49" s="18" t="inlineStr">
+      <c r="A49" s="3" t="n"/>
+      <c r="B49" s="1" t="inlineStr">
         <is>
           <t>H12</t>
         </is>
@@ -3270,69 +3151,69 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>container</t>
         </is>
       </c>
-      <c r="B1" s="18" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="C1" s="18" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>MeasureFluorescence.measurements.607</t>
         </is>
       </c>
-      <c r="D1" s="18" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>emissionBandpassWidth</t>
         </is>
       </c>
-      <c r="E1" s="18" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>excitationWavelength</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>emissionWavelength</t>
         </is>
       </c>
-      <c r="F1" s="18" t="inlineStr">
-        <is>
-          <t>excitationWavelength</t>
-        </is>
-      </c>
-      <c r="G1" s="18" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Water, sterile-filtered, BioReagent, suitable for cell culture</t>
         </is>
       </c>
-      <c r="H1" s="18" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Fluorescein</t>
         </is>
       </c>
-      <c r="I1" s="18" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Phosphate Buffered Saline</t>
         </is>
       </c>
-      <c r="J1" s="18" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>NanoCym 950 nm monodisperse silica nanoparticles</t>
         </is>
       </c>
-      <c r="K1" s="18" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>sample_location</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>calibration plate</t>
         </is>
       </c>
-      <c r="B2" s="18" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>A1</t>
         </is>
@@ -3344,12 +3225,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -3365,8 +3246,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="n"/>
-      <c r="B3" s="18" t="inlineStr">
+      <c r="A3" s="2" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>A2</t>
         </is>
@@ -3378,12 +3259,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -3399,8 +3280,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21" t="n"/>
-      <c r="B4" s="18" t="inlineStr">
+      <c r="A4" s="2" t="n"/>
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>A3</t>
         </is>
@@ -3412,12 +3293,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -3433,8 +3314,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="21" t="n"/>
-      <c r="B5" s="18" t="inlineStr">
+      <c r="A5" s="2" t="n"/>
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>A4</t>
         </is>
@@ -3446,12 +3327,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -3467,8 +3348,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21" t="n"/>
-      <c r="B6" s="18" t="inlineStr">
+      <c r="A6" s="2" t="n"/>
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>A5</t>
         </is>
@@ -3480,12 +3361,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -3501,8 +3382,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="21" t="n"/>
-      <c r="B7" s="18" t="inlineStr">
+      <c r="A7" s="2" t="n"/>
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>A6</t>
         </is>
@@ -3514,12 +3395,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -3535,8 +3416,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="21" t="n"/>
-      <c r="B8" s="18" t="inlineStr">
+      <c r="A8" s="2" t="n"/>
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>A7</t>
         </is>
@@ -3548,12 +3429,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -3569,8 +3450,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="21" t="n"/>
-      <c r="B9" s="18" t="inlineStr">
+      <c r="A9" s="2" t="n"/>
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>A8</t>
         </is>
@@ -3582,12 +3463,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -3603,8 +3484,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="21" t="n"/>
-      <c r="B10" s="18" t="inlineStr">
+      <c r="A10" s="2" t="n"/>
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>A9</t>
         </is>
@@ -3616,12 +3497,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -3637,8 +3518,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="21" t="n"/>
-      <c r="B11" s="18" t="inlineStr">
+      <c r="A11" s="2" t="n"/>
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>A10</t>
         </is>
@@ -3650,12 +3531,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -3671,8 +3552,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="21" t="n"/>
-      <c r="B12" s="18" t="inlineStr">
+      <c r="A12" s="2" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>A11</t>
         </is>
@@ -3684,12 +3565,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -3705,8 +3586,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="21" t="n"/>
-      <c r="B13" s="18" t="inlineStr">
+      <c r="A13" s="2" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>A12</t>
         </is>
@@ -3718,12 +3599,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -3736,8 +3617,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="21" t="n"/>
-      <c r="B14" s="18" t="inlineStr">
+      <c r="A14" s="2" t="n"/>
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
@@ -3749,12 +3630,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -3770,8 +3651,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="21" t="n"/>
-      <c r="B15" s="18" t="inlineStr">
+      <c r="A15" s="2" t="n"/>
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
@@ -3783,12 +3664,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -3804,8 +3685,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="21" t="n"/>
-      <c r="B16" s="18" t="inlineStr">
+      <c r="A16" s="2" t="n"/>
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>B3</t>
         </is>
@@ -3817,12 +3698,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -3838,8 +3719,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="21" t="n"/>
-      <c r="B17" s="18" t="inlineStr">
+      <c r="A17" s="2" t="n"/>
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>B4</t>
         </is>
@@ -3851,12 +3732,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -3872,8 +3753,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="21" t="n"/>
-      <c r="B18" s="18" t="inlineStr">
+      <c r="A18" s="2" t="n"/>
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>B5</t>
         </is>
@@ -3885,12 +3766,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -3906,8 +3787,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="21" t="n"/>
-      <c r="B19" s="18" t="inlineStr">
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>B6</t>
         </is>
@@ -3919,12 +3800,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -3940,8 +3821,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="21" t="n"/>
-      <c r="B20" s="18" t="inlineStr">
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
@@ -3953,12 +3834,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -3974,8 +3855,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="21" t="n"/>
-      <c r="B21" s="18" t="inlineStr">
+      <c r="A21" s="2" t="n"/>
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>B8</t>
         </is>
@@ -3987,12 +3868,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -4008,8 +3889,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="21" t="n"/>
-      <c r="B22" s="18" t="inlineStr">
+      <c r="A22" s="2" t="n"/>
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>B9</t>
         </is>
@@ -4021,12 +3902,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -4042,8 +3923,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="21" t="n"/>
-      <c r="B23" s="18" t="inlineStr">
+      <c r="A23" s="2" t="n"/>
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>B10</t>
         </is>
@@ -4055,12 +3936,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -4076,8 +3957,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="21" t="n"/>
-      <c r="B24" s="18" t="inlineStr">
+      <c r="A24" s="2" t="n"/>
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>B11</t>
         </is>
@@ -4089,12 +3970,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -4110,8 +3991,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="21" t="n"/>
-      <c r="B25" s="18" t="inlineStr">
+      <c r="A25" s="2" t="n"/>
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>B12</t>
         </is>
@@ -4123,12 +4004,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -4141,8 +4022,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="21" t="n"/>
-      <c r="B26" s="18" t="inlineStr">
+      <c r="A26" s="2" t="n"/>
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>C1</t>
         </is>
@@ -4154,12 +4035,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -4175,8 +4056,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="21" t="n"/>
-      <c r="B27" s="18" t="inlineStr">
+      <c r="A27" s="2" t="n"/>
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>C2</t>
         </is>
@@ -4188,12 +4069,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -4209,8 +4090,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="21" t="n"/>
-      <c r="B28" s="18" t="inlineStr">
+      <c r="A28" s="2" t="n"/>
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
@@ -4222,12 +4103,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -4243,8 +4124,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="21" t="n"/>
-      <c r="B29" s="18" t="inlineStr">
+      <c r="A29" s="2" t="n"/>
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>C4</t>
         </is>
@@ -4256,12 +4137,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -4277,8 +4158,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="21" t="n"/>
-      <c r="B30" s="18" t="inlineStr">
+      <c r="A30" s="2" t="n"/>
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>C5</t>
         </is>
@@ -4290,12 +4171,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -4311,8 +4192,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="21" t="n"/>
-      <c r="B31" s="18" t="inlineStr">
+      <c r="A31" s="2" t="n"/>
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>C6</t>
         </is>
@@ -4324,12 +4205,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -4345,8 +4226,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="21" t="n"/>
-      <c r="B32" s="18" t="inlineStr">
+      <c r="A32" s="2" t="n"/>
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>C7</t>
         </is>
@@ -4358,12 +4239,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -4379,8 +4260,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="21" t="n"/>
-      <c r="B33" s="18" t="inlineStr">
+      <c r="A33" s="2" t="n"/>
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>C8</t>
         </is>
@@ -4392,12 +4273,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -4413,8 +4294,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="21" t="n"/>
-      <c r="B34" s="18" t="inlineStr">
+      <c r="A34" s="2" t="n"/>
+      <c r="B34" s="1" t="inlineStr">
         <is>
           <t>C9</t>
         </is>
@@ -4426,12 +4307,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -4447,8 +4328,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="21" t="n"/>
-      <c r="B35" s="18" t="inlineStr">
+      <c r="A35" s="2" t="n"/>
+      <c r="B35" s="1" t="inlineStr">
         <is>
           <t>C10</t>
         </is>
@@ -4460,12 +4341,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -4481,8 +4362,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="21" t="n"/>
-      <c r="B36" s="18" t="inlineStr">
+      <c r="A36" s="2" t="n"/>
+      <c r="B36" s="1" t="inlineStr">
         <is>
           <t>C11</t>
         </is>
@@ -4494,12 +4375,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -4515,8 +4396,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="21" t="n"/>
-      <c r="B37" s="18" t="inlineStr">
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="1" t="inlineStr">
         <is>
           <t>C12</t>
         </is>
@@ -4528,12 +4409,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -4546,8 +4427,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="21" t="n"/>
-      <c r="B38" s="18" t="inlineStr">
+      <c r="A38" s="2" t="n"/>
+      <c r="B38" s="1" t="inlineStr">
         <is>
           <t>D1</t>
         </is>
@@ -4559,12 +4440,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -4580,8 +4461,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="21" t="n"/>
-      <c r="B39" s="18" t="inlineStr">
+      <c r="A39" s="2" t="n"/>
+      <c r="B39" s="1" t="inlineStr">
         <is>
           <t>D2</t>
         </is>
@@ -4593,12 +4474,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -4614,8 +4495,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="21" t="n"/>
-      <c r="B40" s="18" t="inlineStr">
+      <c r="A40" s="2" t="n"/>
+      <c r="B40" s="1" t="inlineStr">
         <is>
           <t>D3</t>
         </is>
@@ -4627,12 +4508,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -4648,8 +4529,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="21" t="n"/>
-      <c r="B41" s="18" t="inlineStr">
+      <c r="A41" s="2" t="n"/>
+      <c r="B41" s="1" t="inlineStr">
         <is>
           <t>D4</t>
         </is>
@@ -4661,12 +4542,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -4682,8 +4563,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="21" t="n"/>
-      <c r="B42" s="18" t="inlineStr">
+      <c r="A42" s="2" t="n"/>
+      <c r="B42" s="1" t="inlineStr">
         <is>
           <t>D5</t>
         </is>
@@ -4695,12 +4576,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -4716,8 +4597,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="21" t="n"/>
-      <c r="B43" s="18" t="inlineStr">
+      <c r="A43" s="2" t="n"/>
+      <c r="B43" s="1" t="inlineStr">
         <is>
           <t>D6</t>
         </is>
@@ -4729,12 +4610,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -4750,8 +4631,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="21" t="n"/>
-      <c r="B44" s="18" t="inlineStr">
+      <c r="A44" s="2" t="n"/>
+      <c r="B44" s="1" t="inlineStr">
         <is>
           <t>D7</t>
         </is>
@@ -4763,12 +4644,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -4784,8 +4665,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="21" t="n"/>
-      <c r="B45" s="18" t="inlineStr">
+      <c r="A45" s="2" t="n"/>
+      <c r="B45" s="1" t="inlineStr">
         <is>
           <t>D8</t>
         </is>
@@ -4797,12 +4678,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -4818,8 +4699,8 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="21" t="n"/>
-      <c r="B46" s="18" t="inlineStr">
+      <c r="A46" s="2" t="n"/>
+      <c r="B46" s="1" t="inlineStr">
         <is>
           <t>D9</t>
         </is>
@@ -4831,12 +4712,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -4852,8 +4733,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="21" t="n"/>
-      <c r="B47" s="18" t="inlineStr">
+      <c r="A47" s="2" t="n"/>
+      <c r="B47" s="1" t="inlineStr">
         <is>
           <t>D10</t>
         </is>
@@ -4865,12 +4746,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -4886,8 +4767,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="21" t="n"/>
-      <c r="B48" s="18" t="inlineStr">
+      <c r="A48" s="2" t="n"/>
+      <c r="B48" s="1" t="inlineStr">
         <is>
           <t>D11</t>
         </is>
@@ -4899,12 +4780,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -4920,8 +4801,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="21" t="n"/>
-      <c r="B49" s="18" t="inlineStr">
+      <c r="A49" s="2" t="n"/>
+      <c r="B49" s="1" t="inlineStr">
         <is>
           <t>D12</t>
         </is>
@@ -4933,12 +4814,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4951,8 +4832,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="21" t="n"/>
-      <c r="B50" s="18" t="inlineStr">
+      <c r="A50" s="2" t="n"/>
+      <c r="B50" s="1" t="inlineStr">
         <is>
           <t>E1</t>
         </is>
@@ -4985,8 +4866,8 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="21" t="n"/>
-      <c r="B51" s="18" t="inlineStr">
+      <c r="A51" s="2" t="n"/>
+      <c r="B51" s="1" t="inlineStr">
         <is>
           <t>E2</t>
         </is>
@@ -5019,8 +4900,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="21" t="n"/>
-      <c r="B52" s="18" t="inlineStr">
+      <c r="A52" s="2" t="n"/>
+      <c r="B52" s="1" t="inlineStr">
         <is>
           <t>E3</t>
         </is>
@@ -5053,8 +4934,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="21" t="n"/>
-      <c r="B53" s="18" t="inlineStr">
+      <c r="A53" s="2" t="n"/>
+      <c r="B53" s="1" t="inlineStr">
         <is>
           <t>E4</t>
         </is>
@@ -5087,8 +4968,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="21" t="n"/>
-      <c r="B54" s="18" t="inlineStr">
+      <c r="A54" s="2" t="n"/>
+      <c r="B54" s="1" t="inlineStr">
         <is>
           <t>E5</t>
         </is>
@@ -5121,8 +5002,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="21" t="n"/>
-      <c r="B55" s="18" t="inlineStr">
+      <c r="A55" s="2" t="n"/>
+      <c r="B55" s="1" t="inlineStr">
         <is>
           <t>E6</t>
         </is>
@@ -5155,8 +5036,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="21" t="n"/>
-      <c r="B56" s="18" t="inlineStr">
+      <c r="A56" s="2" t="n"/>
+      <c r="B56" s="1" t="inlineStr">
         <is>
           <t>E7</t>
         </is>
@@ -5189,8 +5070,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="21" t="n"/>
-      <c r="B57" s="18" t="inlineStr">
+      <c r="A57" s="2" t="n"/>
+      <c r="B57" s="1" t="inlineStr">
         <is>
           <t>E8</t>
         </is>
@@ -5223,8 +5104,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="21" t="n"/>
-      <c r="B58" s="18" t="inlineStr">
+      <c r="A58" s="2" t="n"/>
+      <c r="B58" s="1" t="inlineStr">
         <is>
           <t>E9</t>
         </is>
@@ -5257,8 +5138,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="21" t="n"/>
-      <c r="B59" s="18" t="inlineStr">
+      <c r="A59" s="2" t="n"/>
+      <c r="B59" s="1" t="inlineStr">
         <is>
           <t>E10</t>
         </is>
@@ -5291,8 +5172,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="21" t="n"/>
-      <c r="B60" s="18" t="inlineStr">
+      <c r="A60" s="2" t="n"/>
+      <c r="B60" s="1" t="inlineStr">
         <is>
           <t>E11</t>
         </is>
@@ -5325,8 +5206,8 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="21" t="n"/>
-      <c r="B61" s="18" t="inlineStr">
+      <c r="A61" s="2" t="n"/>
+      <c r="B61" s="1" t="inlineStr">
         <is>
           <t>E12</t>
         </is>
@@ -5356,8 +5237,8 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="21" t="n"/>
-      <c r="B62" s="18" t="inlineStr">
+      <c r="A62" s="2" t="n"/>
+      <c r="B62" s="1" t="inlineStr">
         <is>
           <t>F1</t>
         </is>
@@ -5390,8 +5271,8 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="21" t="n"/>
-      <c r="B63" s="18" t="inlineStr">
+      <c r="A63" s="2" t="n"/>
+      <c r="B63" s="1" t="inlineStr">
         <is>
           <t>F2</t>
         </is>
@@ -5424,8 +5305,8 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="21" t="n"/>
-      <c r="B64" s="18" t="inlineStr">
+      <c r="A64" s="2" t="n"/>
+      <c r="B64" s="1" t="inlineStr">
         <is>
           <t>F3</t>
         </is>
@@ -5458,8 +5339,8 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="21" t="n"/>
-      <c r="B65" s="18" t="inlineStr">
+      <c r="A65" s="2" t="n"/>
+      <c r="B65" s="1" t="inlineStr">
         <is>
           <t>F4</t>
         </is>
@@ -5492,8 +5373,8 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="21" t="n"/>
-      <c r="B66" s="18" t="inlineStr">
+      <c r="A66" s="2" t="n"/>
+      <c r="B66" s="1" t="inlineStr">
         <is>
           <t>F5</t>
         </is>
@@ -5526,8 +5407,8 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="21" t="n"/>
-      <c r="B67" s="18" t="inlineStr">
+      <c r="A67" s="2" t="n"/>
+      <c r="B67" s="1" t="inlineStr">
         <is>
           <t>F6</t>
         </is>
@@ -5560,8 +5441,8 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="21" t="n"/>
-      <c r="B68" s="18" t="inlineStr">
+      <c r="A68" s="2" t="n"/>
+      <c r="B68" s="1" t="inlineStr">
         <is>
           <t>F7</t>
         </is>
@@ -5594,8 +5475,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="21" t="n"/>
-      <c r="B69" s="18" t="inlineStr">
+      <c r="A69" s="2" t="n"/>
+      <c r="B69" s="1" t="inlineStr">
         <is>
           <t>F8</t>
         </is>
@@ -5628,8 +5509,8 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="21" t="n"/>
-      <c r="B70" s="18" t="inlineStr">
+      <c r="A70" s="2" t="n"/>
+      <c r="B70" s="1" t="inlineStr">
         <is>
           <t>F9</t>
         </is>
@@ -5662,8 +5543,8 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="21" t="n"/>
-      <c r="B71" s="18" t="inlineStr">
+      <c r="A71" s="2" t="n"/>
+      <c r="B71" s="1" t="inlineStr">
         <is>
           <t>F10</t>
         </is>
@@ -5696,8 +5577,8 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="21" t="n"/>
-      <c r="B72" s="18" t="inlineStr">
+      <c r="A72" s="2" t="n"/>
+      <c r="B72" s="1" t="inlineStr">
         <is>
           <t>F11</t>
         </is>
@@ -5730,8 +5611,8 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="21" t="n"/>
-      <c r="B73" s="18" t="inlineStr">
+      <c r="A73" s="2" t="n"/>
+      <c r="B73" s="1" t="inlineStr">
         <is>
           <t>F12</t>
         </is>
@@ -5761,8 +5642,8 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="21" t="n"/>
-      <c r="B74" s="18" t="inlineStr">
+      <c r="A74" s="2" t="n"/>
+      <c r="B74" s="1" t="inlineStr">
         <is>
           <t>G1</t>
         </is>
@@ -5795,8 +5676,8 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="21" t="n"/>
-      <c r="B75" s="18" t="inlineStr">
+      <c r="A75" s="2" t="n"/>
+      <c r="B75" s="1" t="inlineStr">
         <is>
           <t>G2</t>
         </is>
@@ -5829,8 +5710,8 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="21" t="n"/>
-      <c r="B76" s="18" t="inlineStr">
+      <c r="A76" s="2" t="n"/>
+      <c r="B76" s="1" t="inlineStr">
         <is>
           <t>G3</t>
         </is>
@@ -5863,8 +5744,8 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="21" t="n"/>
-      <c r="B77" s="18" t="inlineStr">
+      <c r="A77" s="2" t="n"/>
+      <c r="B77" s="1" t="inlineStr">
         <is>
           <t>G4</t>
         </is>
@@ -5897,8 +5778,8 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="21" t="n"/>
-      <c r="B78" s="18" t="inlineStr">
+      <c r="A78" s="2" t="n"/>
+      <c r="B78" s="1" t="inlineStr">
         <is>
           <t>G5</t>
         </is>
@@ -5931,8 +5812,8 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="21" t="n"/>
-      <c r="B79" s="18" t="inlineStr">
+      <c r="A79" s="2" t="n"/>
+      <c r="B79" s="1" t="inlineStr">
         <is>
           <t>G6</t>
         </is>
@@ -5965,8 +5846,8 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="21" t="n"/>
-      <c r="B80" s="18" t="inlineStr">
+      <c r="A80" s="2" t="n"/>
+      <c r="B80" s="1" t="inlineStr">
         <is>
           <t>G7</t>
         </is>
@@ -5999,8 +5880,8 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="21" t="n"/>
-      <c r="B81" s="18" t="inlineStr">
+      <c r="A81" s="2" t="n"/>
+      <c r="B81" s="1" t="inlineStr">
         <is>
           <t>G8</t>
         </is>
@@ -6033,8 +5914,8 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="21" t="n"/>
-      <c r="B82" s="18" t="inlineStr">
+      <c r="A82" s="2" t="n"/>
+      <c r="B82" s="1" t="inlineStr">
         <is>
           <t>G9</t>
         </is>
@@ -6067,8 +5948,8 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="21" t="n"/>
-      <c r="B83" s="18" t="inlineStr">
+      <c r="A83" s="2" t="n"/>
+      <c r="B83" s="1" t="inlineStr">
         <is>
           <t>G10</t>
         </is>
@@ -6101,8 +5982,8 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="21" t="n"/>
-      <c r="B84" s="18" t="inlineStr">
+      <c r="A84" s="2" t="n"/>
+      <c r="B84" s="1" t="inlineStr">
         <is>
           <t>G11</t>
         </is>
@@ -6135,8 +6016,8 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="21" t="n"/>
-      <c r="B85" s="18" t="inlineStr">
+      <c r="A85" s="2" t="n"/>
+      <c r="B85" s="1" t="inlineStr">
         <is>
           <t>G12</t>
         </is>
@@ -6166,8 +6047,8 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="21" t="n"/>
-      <c r="B86" s="18" t="inlineStr">
+      <c r="A86" s="2" t="n"/>
+      <c r="B86" s="1" t="inlineStr">
         <is>
           <t>H1</t>
         </is>
@@ -6200,8 +6081,8 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="21" t="n"/>
-      <c r="B87" s="18" t="inlineStr">
+      <c r="A87" s="2" t="n"/>
+      <c r="B87" s="1" t="inlineStr">
         <is>
           <t>H2</t>
         </is>
@@ -6234,8 +6115,8 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="21" t="n"/>
-      <c r="B88" s="18" t="inlineStr">
+      <c r="A88" s="2" t="n"/>
+      <c r="B88" s="1" t="inlineStr">
         <is>
           <t>H3</t>
         </is>
@@ -6268,8 +6149,8 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="21" t="n"/>
-      <c r="B89" s="18" t="inlineStr">
+      <c r="A89" s="2" t="n"/>
+      <c r="B89" s="1" t="inlineStr">
         <is>
           <t>H4</t>
         </is>
@@ -6302,8 +6183,8 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="21" t="n"/>
-      <c r="B90" s="18" t="inlineStr">
+      <c r="A90" s="2" t="n"/>
+      <c r="B90" s="1" t="inlineStr">
         <is>
           <t>H5</t>
         </is>
@@ -6336,8 +6217,8 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="21" t="n"/>
-      <c r="B91" s="18" t="inlineStr">
+      <c r="A91" s="2" t="n"/>
+      <c r="B91" s="1" t="inlineStr">
         <is>
           <t>H6</t>
         </is>
@@ -6370,8 +6251,8 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="21" t="n"/>
-      <c r="B92" s="18" t="inlineStr">
+      <c r="A92" s="2" t="n"/>
+      <c r="B92" s="1" t="inlineStr">
         <is>
           <t>H7</t>
         </is>
@@ -6404,8 +6285,8 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="21" t="n"/>
-      <c r="B93" s="18" t="inlineStr">
+      <c r="A93" s="2" t="n"/>
+      <c r="B93" s="1" t="inlineStr">
         <is>
           <t>H8</t>
         </is>
@@ -6438,8 +6319,8 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="21" t="n"/>
-      <c r="B94" s="18" t="inlineStr">
+      <c r="A94" s="2" t="n"/>
+      <c r="B94" s="1" t="inlineStr">
         <is>
           <t>H9</t>
         </is>
@@ -6472,8 +6353,8 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="21" t="n"/>
-      <c r="B95" s="18" t="inlineStr">
+      <c r="A95" s="2" t="n"/>
+      <c r="B95" s="1" t="inlineStr">
         <is>
           <t>H10</t>
         </is>
@@ -6506,8 +6387,8 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="21" t="n"/>
-      <c r="B96" s="18" t="inlineStr">
+      <c r="A96" s="2" t="n"/>
+      <c r="B96" s="1" t="inlineStr">
         <is>
           <t>H11</t>
         </is>
@@ -6540,8 +6421,8 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="22" t="n"/>
-      <c r="B97" s="18" t="inlineStr">
+      <c r="A97" s="3" t="n"/>
+      <c r="B97" s="1" t="inlineStr">
         <is>
           <t>H12</t>
         </is>
@@ -6593,59 +6474,59 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>container</t>
         </is>
       </c>
-      <c r="B1" s="18" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="C1" s="18" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>MeasureAbsorbance.measurements.916</t>
         </is>
       </c>
-      <c r="D1" s="18" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>wavelength</t>
         </is>
       </c>
-      <c r="E1" s="18" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Water, sterile-filtered, BioReagent, suitable for cell culture</t>
         </is>
       </c>
-      <c r="F1" s="18" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Fluorescein</t>
         </is>
       </c>
-      <c r="G1" s="18" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Phosphate Buffered Saline</t>
         </is>
       </c>
-      <c r="H1" s="18" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>NanoCym 950 nm monodisperse silica nanoparticles</t>
         </is>
       </c>
-      <c r="I1" s="18" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>sample_location</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>calibration plate</t>
         </is>
       </c>
-      <c r="B2" s="18" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>A1</t>
         </is>
@@ -6668,8 +6549,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="n"/>
-      <c r="B3" s="18" t="inlineStr">
+      <c r="A3" s="2" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>A2</t>
         </is>
@@ -6692,8 +6573,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21" t="n"/>
-      <c r="B4" s="18" t="inlineStr">
+      <c r="A4" s="2" t="n"/>
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>A3</t>
         </is>
@@ -6716,8 +6597,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="21" t="n"/>
-      <c r="B5" s="18" t="inlineStr">
+      <c r="A5" s="2" t="n"/>
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>A4</t>
         </is>
@@ -6740,8 +6621,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21" t="n"/>
-      <c r="B6" s="18" t="inlineStr">
+      <c r="A6" s="2" t="n"/>
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>A5</t>
         </is>
@@ -6764,8 +6645,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="21" t="n"/>
-      <c r="B7" s="18" t="inlineStr">
+      <c r="A7" s="2" t="n"/>
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>A6</t>
         </is>
@@ -6788,8 +6669,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="21" t="n"/>
-      <c r="B8" s="18" t="inlineStr">
+      <c r="A8" s="2" t="n"/>
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>A7</t>
         </is>
@@ -6812,8 +6693,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="21" t="n"/>
-      <c r="B9" s="18" t="inlineStr">
+      <c r="A9" s="2" t="n"/>
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>A8</t>
         </is>
@@ -6836,8 +6717,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="21" t="n"/>
-      <c r="B10" s="18" t="inlineStr">
+      <c r="A10" s="2" t="n"/>
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>A9</t>
         </is>
@@ -6860,8 +6741,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="21" t="n"/>
-      <c r="B11" s="18" t="inlineStr">
+      <c r="A11" s="2" t="n"/>
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>A10</t>
         </is>
@@ -6884,8 +6765,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="21" t="n"/>
-      <c r="B12" s="18" t="inlineStr">
+      <c r="A12" s="2" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>A11</t>
         </is>
@@ -6908,8 +6789,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="21" t="n"/>
-      <c r="B13" s="18" t="inlineStr">
+      <c r="A13" s="2" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>A12</t>
         </is>
@@ -6929,8 +6810,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="21" t="n"/>
-      <c r="B14" s="18" t="inlineStr">
+      <c r="A14" s="2" t="n"/>
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
@@ -6953,8 +6834,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="21" t="n"/>
-      <c r="B15" s="18" t="inlineStr">
+      <c r="A15" s="2" t="n"/>
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
@@ -6977,8 +6858,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="21" t="n"/>
-      <c r="B16" s="18" t="inlineStr">
+      <c r="A16" s="2" t="n"/>
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>B3</t>
         </is>
@@ -7001,8 +6882,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="21" t="n"/>
-      <c r="B17" s="18" t="inlineStr">
+      <c r="A17" s="2" t="n"/>
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>B4</t>
         </is>
@@ -7025,8 +6906,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="21" t="n"/>
-      <c r="B18" s="18" t="inlineStr">
+      <c r="A18" s="2" t="n"/>
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>B5</t>
         </is>
@@ -7049,8 +6930,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="21" t="n"/>
-      <c r="B19" s="18" t="inlineStr">
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>B6</t>
         </is>
@@ -7073,8 +6954,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="21" t="n"/>
-      <c r="B20" s="18" t="inlineStr">
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
@@ -7097,8 +6978,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="21" t="n"/>
-      <c r="B21" s="18" t="inlineStr">
+      <c r="A21" s="2" t="n"/>
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>B8</t>
         </is>
@@ -7121,8 +7002,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="21" t="n"/>
-      <c r="B22" s="18" t="inlineStr">
+      <c r="A22" s="2" t="n"/>
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>B9</t>
         </is>
@@ -7145,8 +7026,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="21" t="n"/>
-      <c r="B23" s="18" t="inlineStr">
+      <c r="A23" s="2" t="n"/>
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>B10</t>
         </is>
@@ -7169,8 +7050,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="21" t="n"/>
-      <c r="B24" s="18" t="inlineStr">
+      <c r="A24" s="2" t="n"/>
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>B11</t>
         </is>
@@ -7193,8 +7074,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="21" t="n"/>
-      <c r="B25" s="18" t="inlineStr">
+      <c r="A25" s="2" t="n"/>
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>B12</t>
         </is>
@@ -7214,8 +7095,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="21" t="n"/>
-      <c r="B26" s="18" t="inlineStr">
+      <c r="A26" s="2" t="n"/>
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>C1</t>
         </is>
@@ -7238,8 +7119,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="21" t="n"/>
-      <c r="B27" s="18" t="inlineStr">
+      <c r="A27" s="2" t="n"/>
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>C2</t>
         </is>
@@ -7262,8 +7143,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="21" t="n"/>
-      <c r="B28" s="18" t="inlineStr">
+      <c r="A28" s="2" t="n"/>
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
@@ -7286,8 +7167,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="21" t="n"/>
-      <c r="B29" s="18" t="inlineStr">
+      <c r="A29" s="2" t="n"/>
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>C4</t>
         </is>
@@ -7310,8 +7191,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="21" t="n"/>
-      <c r="B30" s="18" t="inlineStr">
+      <c r="A30" s="2" t="n"/>
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>C5</t>
         </is>
@@ -7334,8 +7215,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="21" t="n"/>
-      <c r="B31" s="18" t="inlineStr">
+      <c r="A31" s="2" t="n"/>
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>C6</t>
         </is>
@@ -7358,8 +7239,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="21" t="n"/>
-      <c r="B32" s="18" t="inlineStr">
+      <c r="A32" s="2" t="n"/>
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>C7</t>
         </is>
@@ -7382,8 +7263,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="21" t="n"/>
-      <c r="B33" s="18" t="inlineStr">
+      <c r="A33" s="2" t="n"/>
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>C8</t>
         </is>
@@ -7406,8 +7287,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="21" t="n"/>
-      <c r="B34" s="18" t="inlineStr">
+      <c r="A34" s="2" t="n"/>
+      <c r="B34" s="1" t="inlineStr">
         <is>
           <t>C9</t>
         </is>
@@ -7430,8 +7311,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="21" t="n"/>
-      <c r="B35" s="18" t="inlineStr">
+      <c r="A35" s="2" t="n"/>
+      <c r="B35" s="1" t="inlineStr">
         <is>
           <t>C10</t>
         </is>
@@ -7454,8 +7335,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="21" t="n"/>
-      <c r="B36" s="18" t="inlineStr">
+      <c r="A36" s="2" t="n"/>
+      <c r="B36" s="1" t="inlineStr">
         <is>
           <t>C11</t>
         </is>
@@ -7478,8 +7359,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="21" t="n"/>
-      <c r="B37" s="18" t="inlineStr">
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="1" t="inlineStr">
         <is>
           <t>C12</t>
         </is>
@@ -7499,8 +7380,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="21" t="n"/>
-      <c r="B38" s="18" t="inlineStr">
+      <c r="A38" s="2" t="n"/>
+      <c r="B38" s="1" t="inlineStr">
         <is>
           <t>D1</t>
         </is>
@@ -7523,8 +7404,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="21" t="n"/>
-      <c r="B39" s="18" t="inlineStr">
+      <c r="A39" s="2" t="n"/>
+      <c r="B39" s="1" t="inlineStr">
         <is>
           <t>D2</t>
         </is>
@@ -7547,8 +7428,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="21" t="n"/>
-      <c r="B40" s="18" t="inlineStr">
+      <c r="A40" s="2" t="n"/>
+      <c r="B40" s="1" t="inlineStr">
         <is>
           <t>D3</t>
         </is>
@@ -7571,8 +7452,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="21" t="n"/>
-      <c r="B41" s="18" t="inlineStr">
+      <c r="A41" s="2" t="n"/>
+      <c r="B41" s="1" t="inlineStr">
         <is>
           <t>D4</t>
         </is>
@@ -7595,8 +7476,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="21" t="n"/>
-      <c r="B42" s="18" t="inlineStr">
+      <c r="A42" s="2" t="n"/>
+      <c r="B42" s="1" t="inlineStr">
         <is>
           <t>D5</t>
         </is>
@@ -7619,8 +7500,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="21" t="n"/>
-      <c r="B43" s="18" t="inlineStr">
+      <c r="A43" s="2" t="n"/>
+      <c r="B43" s="1" t="inlineStr">
         <is>
           <t>D6</t>
         </is>
@@ -7643,8 +7524,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="21" t="n"/>
-      <c r="B44" s="18" t="inlineStr">
+      <c r="A44" s="2" t="n"/>
+      <c r="B44" s="1" t="inlineStr">
         <is>
           <t>D7</t>
         </is>
@@ -7667,8 +7548,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="21" t="n"/>
-      <c r="B45" s="18" t="inlineStr">
+      <c r="A45" s="2" t="n"/>
+      <c r="B45" s="1" t="inlineStr">
         <is>
           <t>D8</t>
         </is>
@@ -7691,8 +7572,8 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="21" t="n"/>
-      <c r="B46" s="18" t="inlineStr">
+      <c r="A46" s="2" t="n"/>
+      <c r="B46" s="1" t="inlineStr">
         <is>
           <t>D9</t>
         </is>
@@ -7715,8 +7596,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="21" t="n"/>
-      <c r="B47" s="18" t="inlineStr">
+      <c r="A47" s="2" t="n"/>
+      <c r="B47" s="1" t="inlineStr">
         <is>
           <t>D10</t>
         </is>
@@ -7739,8 +7620,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="21" t="n"/>
-      <c r="B48" s="18" t="inlineStr">
+      <c r="A48" s="2" t="n"/>
+      <c r="B48" s="1" t="inlineStr">
         <is>
           <t>D11</t>
         </is>
@@ -7763,8 +7644,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="21" t="n"/>
-      <c r="B49" s="18" t="inlineStr">
+      <c r="A49" s="2" t="n"/>
+      <c r="B49" s="1" t="inlineStr">
         <is>
           <t>D12</t>
         </is>
@@ -7784,8 +7665,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="21" t="n"/>
-      <c r="B50" s="18" t="inlineStr">
+      <c r="A50" s="2" t="n"/>
+      <c r="B50" s="1" t="inlineStr">
         <is>
           <t>E1</t>
         </is>
@@ -7808,8 +7689,8 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="21" t="n"/>
-      <c r="B51" s="18" t="inlineStr">
+      <c r="A51" s="2" t="n"/>
+      <c r="B51" s="1" t="inlineStr">
         <is>
           <t>E2</t>
         </is>
@@ -7832,8 +7713,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="21" t="n"/>
-      <c r="B52" s="18" t="inlineStr">
+      <c r="A52" s="2" t="n"/>
+      <c r="B52" s="1" t="inlineStr">
         <is>
           <t>E3</t>
         </is>
@@ -7856,8 +7737,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="21" t="n"/>
-      <c r="B53" s="18" t="inlineStr">
+      <c r="A53" s="2" t="n"/>
+      <c r="B53" s="1" t="inlineStr">
         <is>
           <t>E4</t>
         </is>
@@ -7880,8 +7761,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="21" t="n"/>
-      <c r="B54" s="18" t="inlineStr">
+      <c r="A54" s="2" t="n"/>
+      <c r="B54" s="1" t="inlineStr">
         <is>
           <t>E5</t>
         </is>
@@ -7904,8 +7785,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="21" t="n"/>
-      <c r="B55" s="18" t="inlineStr">
+      <c r="A55" s="2" t="n"/>
+      <c r="B55" s="1" t="inlineStr">
         <is>
           <t>E6</t>
         </is>
@@ -7928,8 +7809,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="21" t="n"/>
-      <c r="B56" s="18" t="inlineStr">
+      <c r="A56" s="2" t="n"/>
+      <c r="B56" s="1" t="inlineStr">
         <is>
           <t>E7</t>
         </is>
@@ -7952,8 +7833,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="21" t="n"/>
-      <c r="B57" s="18" t="inlineStr">
+      <c r="A57" s="2" t="n"/>
+      <c r="B57" s="1" t="inlineStr">
         <is>
           <t>E8</t>
         </is>
@@ -7976,8 +7857,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="21" t="n"/>
-      <c r="B58" s="18" t="inlineStr">
+      <c r="A58" s="2" t="n"/>
+      <c r="B58" s="1" t="inlineStr">
         <is>
           <t>E9</t>
         </is>
@@ -8000,8 +7881,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="21" t="n"/>
-      <c r="B59" s="18" t="inlineStr">
+      <c r="A59" s="2" t="n"/>
+      <c r="B59" s="1" t="inlineStr">
         <is>
           <t>E10</t>
         </is>
@@ -8024,8 +7905,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="21" t="n"/>
-      <c r="B60" s="18" t="inlineStr">
+      <c r="A60" s="2" t="n"/>
+      <c r="B60" s="1" t="inlineStr">
         <is>
           <t>E11</t>
         </is>
@@ -8048,8 +7929,8 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="21" t="n"/>
-      <c r="B61" s="18" t="inlineStr">
+      <c r="A61" s="2" t="n"/>
+      <c r="B61" s="1" t="inlineStr">
         <is>
           <t>E12</t>
         </is>
@@ -8069,8 +7950,8 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="21" t="n"/>
-      <c r="B62" s="18" t="inlineStr">
+      <c r="A62" s="2" t="n"/>
+      <c r="B62" s="1" t="inlineStr">
         <is>
           <t>F1</t>
         </is>
@@ -8093,8 +7974,8 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="21" t="n"/>
-      <c r="B63" s="18" t="inlineStr">
+      <c r="A63" s="2" t="n"/>
+      <c r="B63" s="1" t="inlineStr">
         <is>
           <t>F2</t>
         </is>
@@ -8117,8 +7998,8 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="21" t="n"/>
-      <c r="B64" s="18" t="inlineStr">
+      <c r="A64" s="2" t="n"/>
+      <c r="B64" s="1" t="inlineStr">
         <is>
           <t>F3</t>
         </is>
@@ -8141,8 +8022,8 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="21" t="n"/>
-      <c r="B65" s="18" t="inlineStr">
+      <c r="A65" s="2" t="n"/>
+      <c r="B65" s="1" t="inlineStr">
         <is>
           <t>F4</t>
         </is>
@@ -8165,8 +8046,8 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="21" t="n"/>
-      <c r="B66" s="18" t="inlineStr">
+      <c r="A66" s="2" t="n"/>
+      <c r="B66" s="1" t="inlineStr">
         <is>
           <t>F5</t>
         </is>
@@ -8189,8 +8070,8 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="21" t="n"/>
-      <c r="B67" s="18" t="inlineStr">
+      <c r="A67" s="2" t="n"/>
+      <c r="B67" s="1" t="inlineStr">
         <is>
           <t>F6</t>
         </is>
@@ -8213,8 +8094,8 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="21" t="n"/>
-      <c r="B68" s="18" t="inlineStr">
+      <c r="A68" s="2" t="n"/>
+      <c r="B68" s="1" t="inlineStr">
         <is>
           <t>F7</t>
         </is>
@@ -8237,8 +8118,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="21" t="n"/>
-      <c r="B69" s="18" t="inlineStr">
+      <c r="A69" s="2" t="n"/>
+      <c r="B69" s="1" t="inlineStr">
         <is>
           <t>F8</t>
         </is>
@@ -8261,8 +8142,8 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="21" t="n"/>
-      <c r="B70" s="18" t="inlineStr">
+      <c r="A70" s="2" t="n"/>
+      <c r="B70" s="1" t="inlineStr">
         <is>
           <t>F9</t>
         </is>
@@ -8285,8 +8166,8 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="21" t="n"/>
-      <c r="B71" s="18" t="inlineStr">
+      <c r="A71" s="2" t="n"/>
+      <c r="B71" s="1" t="inlineStr">
         <is>
           <t>F10</t>
         </is>
@@ -8309,8 +8190,8 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="21" t="n"/>
-      <c r="B72" s="18" t="inlineStr">
+      <c r="A72" s="2" t="n"/>
+      <c r="B72" s="1" t="inlineStr">
         <is>
           <t>F11</t>
         </is>
@@ -8333,8 +8214,8 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="21" t="n"/>
-      <c r="B73" s="18" t="inlineStr">
+      <c r="A73" s="2" t="n"/>
+      <c r="B73" s="1" t="inlineStr">
         <is>
           <t>F12</t>
         </is>
@@ -8354,8 +8235,8 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="21" t="n"/>
-      <c r="B74" s="18" t="inlineStr">
+      <c r="A74" s="2" t="n"/>
+      <c r="B74" s="1" t="inlineStr">
         <is>
           <t>G1</t>
         </is>
@@ -8378,8 +8259,8 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="21" t="n"/>
-      <c r="B75" s="18" t="inlineStr">
+      <c r="A75" s="2" t="n"/>
+      <c r="B75" s="1" t="inlineStr">
         <is>
           <t>G2</t>
         </is>
@@ -8402,8 +8283,8 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="21" t="n"/>
-      <c r="B76" s="18" t="inlineStr">
+      <c r="A76" s="2" t="n"/>
+      <c r="B76" s="1" t="inlineStr">
         <is>
           <t>G3</t>
         </is>
@@ -8426,8 +8307,8 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="21" t="n"/>
-      <c r="B77" s="18" t="inlineStr">
+      <c r="A77" s="2" t="n"/>
+      <c r="B77" s="1" t="inlineStr">
         <is>
           <t>G4</t>
         </is>
@@ -8450,8 +8331,8 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="21" t="n"/>
-      <c r="B78" s="18" t="inlineStr">
+      <c r="A78" s="2" t="n"/>
+      <c r="B78" s="1" t="inlineStr">
         <is>
           <t>G5</t>
         </is>
@@ -8474,8 +8355,8 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="21" t="n"/>
-      <c r="B79" s="18" t="inlineStr">
+      <c r="A79" s="2" t="n"/>
+      <c r="B79" s="1" t="inlineStr">
         <is>
           <t>G6</t>
         </is>
@@ -8498,8 +8379,8 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="21" t="n"/>
-      <c r="B80" s="18" t="inlineStr">
+      <c r="A80" s="2" t="n"/>
+      <c r="B80" s="1" t="inlineStr">
         <is>
           <t>G7</t>
         </is>
@@ -8522,8 +8403,8 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="21" t="n"/>
-      <c r="B81" s="18" t="inlineStr">
+      <c r="A81" s="2" t="n"/>
+      <c r="B81" s="1" t="inlineStr">
         <is>
           <t>G8</t>
         </is>
@@ -8546,8 +8427,8 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="21" t="n"/>
-      <c r="B82" s="18" t="inlineStr">
+      <c r="A82" s="2" t="n"/>
+      <c r="B82" s="1" t="inlineStr">
         <is>
           <t>G9</t>
         </is>
@@ -8570,8 +8451,8 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="21" t="n"/>
-      <c r="B83" s="18" t="inlineStr">
+      <c r="A83" s="2" t="n"/>
+      <c r="B83" s="1" t="inlineStr">
         <is>
           <t>G10</t>
         </is>
@@ -8594,8 +8475,8 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="21" t="n"/>
-      <c r="B84" s="18" t="inlineStr">
+      <c r="A84" s="2" t="n"/>
+      <c r="B84" s="1" t="inlineStr">
         <is>
           <t>G11</t>
         </is>
@@ -8618,8 +8499,8 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="21" t="n"/>
-      <c r="B85" s="18" t="inlineStr">
+      <c r="A85" s="2" t="n"/>
+      <c r="B85" s="1" t="inlineStr">
         <is>
           <t>G12</t>
         </is>
@@ -8639,8 +8520,8 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="21" t="n"/>
-      <c r="B86" s="18" t="inlineStr">
+      <c r="A86" s="2" t="n"/>
+      <c r="B86" s="1" t="inlineStr">
         <is>
           <t>H1</t>
         </is>
@@ -8663,8 +8544,8 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="21" t="n"/>
-      <c r="B87" s="18" t="inlineStr">
+      <c r="A87" s="2" t="n"/>
+      <c r="B87" s="1" t="inlineStr">
         <is>
           <t>H2</t>
         </is>
@@ -8687,8 +8568,8 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="21" t="n"/>
-      <c r="B88" s="18" t="inlineStr">
+      <c r="A88" s="2" t="n"/>
+      <c r="B88" s="1" t="inlineStr">
         <is>
           <t>H3</t>
         </is>
@@ -8711,8 +8592,8 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="21" t="n"/>
-      <c r="B89" s="18" t="inlineStr">
+      <c r="A89" s="2" t="n"/>
+      <c r="B89" s="1" t="inlineStr">
         <is>
           <t>H4</t>
         </is>
@@ -8735,8 +8616,8 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="21" t="n"/>
-      <c r="B90" s="18" t="inlineStr">
+      <c r="A90" s="2" t="n"/>
+      <c r="B90" s="1" t="inlineStr">
         <is>
           <t>H5</t>
         </is>
@@ -8759,8 +8640,8 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="21" t="n"/>
-      <c r="B91" s="18" t="inlineStr">
+      <c r="A91" s="2" t="n"/>
+      <c r="B91" s="1" t="inlineStr">
         <is>
           <t>H6</t>
         </is>
@@ -8783,8 +8664,8 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="21" t="n"/>
-      <c r="B92" s="18" t="inlineStr">
+      <c r="A92" s="2" t="n"/>
+      <c r="B92" s="1" t="inlineStr">
         <is>
           <t>H7</t>
         </is>
@@ -8807,8 +8688,8 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="21" t="n"/>
-      <c r="B93" s="18" t="inlineStr">
+      <c r="A93" s="2" t="n"/>
+      <c r="B93" s="1" t="inlineStr">
         <is>
           <t>H8</t>
         </is>
@@ -8831,8 +8712,8 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="21" t="n"/>
-      <c r="B94" s="18" t="inlineStr">
+      <c r="A94" s="2" t="n"/>
+      <c r="B94" s="1" t="inlineStr">
         <is>
           <t>H9</t>
         </is>
@@ -8855,8 +8736,8 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="21" t="n"/>
-      <c r="B95" s="18" t="inlineStr">
+      <c r="A95" s="2" t="n"/>
+      <c r="B95" s="1" t="inlineStr">
         <is>
           <t>H10</t>
         </is>
@@ -8879,8 +8760,8 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="21" t="n"/>
-      <c r="B96" s="18" t="inlineStr">
+      <c r="A96" s="2" t="n"/>
+      <c r="B96" s="1" t="inlineStr">
         <is>
           <t>H11</t>
         </is>
@@ -8903,8 +8784,8 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="22" t="n"/>
-      <c r="B97" s="18" t="inlineStr">
+      <c r="A97" s="3" t="n"/>
+      <c r="B97" s="1" t="inlineStr">
         <is>
           <t>H12</t>
         </is>
@@ -8946,79 +8827,79 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>container</t>
         </is>
       </c>
-      <c r="B1" s="18" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="C1" s="18" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>MeasureFluorescence.measurements.607</t>
         </is>
       </c>
-      <c r="D1" s="18" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>emissionBandpassWidth</t>
         </is>
       </c>
-      <c r="E1" s="18" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>excitationWavelength</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>emissionWavelength</t>
         </is>
       </c>
-      <c r="F1" s="18" t="inlineStr">
-        <is>
-          <t>excitationWavelength</t>
-        </is>
-      </c>
-      <c r="G1" s="18" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>MeasureAbsorbance.measurements.916</t>
         </is>
       </c>
-      <c r="H1" s="18" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>wavelength</t>
         </is>
       </c>
-      <c r="I1" s="18" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Water, sterile-filtered, BioReagent, suitable for cell culture</t>
         </is>
       </c>
-      <c r="J1" s="18" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Fluorescein</t>
         </is>
       </c>
-      <c r="K1" s="18" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Phosphate Buffered Saline</t>
         </is>
       </c>
-      <c r="L1" s="18" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>NanoCym 950 nm monodisperse silica nanoparticles</t>
         </is>
       </c>
-      <c r="M1" s="18" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>sample_location</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>calibration plate</t>
         </is>
       </c>
-      <c r="B2" s="18" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>A1</t>
         </is>
@@ -9031,12 +8912,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -9060,8 +8941,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="18" t="n"/>
-      <c r="B3" s="18" t="inlineStr">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>A2</t>
         </is>
@@ -9074,12 +8955,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -9103,8 +8984,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="18" t="n"/>
-      <c r="B4" s="18" t="inlineStr">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>A3</t>
         </is>
@@ -9117,12 +8998,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -9146,8 +9027,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="18" t="n"/>
-      <c r="B5" s="18" t="inlineStr">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>A4</t>
         </is>
@@ -9160,12 +9041,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -9189,8 +9070,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="18" t="n"/>
-      <c r="B6" s="18" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>A5</t>
         </is>
@@ -9203,12 +9084,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -9232,8 +9113,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="18" t="n"/>
-      <c r="B7" s="18" t="inlineStr">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>A6</t>
         </is>
@@ -9246,12 +9127,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -9275,8 +9156,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="18" t="n"/>
-      <c r="B8" s="18" t="inlineStr">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>A7</t>
         </is>
@@ -9289,12 +9170,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -9318,8 +9199,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="18" t="n"/>
-      <c r="B9" s="18" t="inlineStr">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>A8</t>
         </is>
@@ -9332,12 +9213,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -9361,8 +9242,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="18" t="n"/>
-      <c r="B10" s="18" t="inlineStr">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>A9</t>
         </is>
@@ -9375,12 +9256,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -9404,8 +9285,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="18" t="n"/>
-      <c r="B11" s="18" t="inlineStr">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>A10</t>
         </is>
@@ -9418,12 +9299,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -9447,8 +9328,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="18" t="n"/>
-      <c r="B12" s="18" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>A11</t>
         </is>
@@ -9461,12 +9342,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -9490,8 +9371,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="18" t="n"/>
-      <c r="B13" s="18" t="inlineStr">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>A12</t>
         </is>
@@ -9504,12 +9385,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -9531,8 +9412,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="18" t="n"/>
-      <c r="B14" s="18" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
@@ -9545,12 +9426,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -9574,8 +9455,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="18" t="n"/>
-      <c r="B15" s="18" t="inlineStr">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
@@ -9588,12 +9469,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -9617,8 +9498,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="18" t="n"/>
-      <c r="B16" s="18" t="inlineStr">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>B3</t>
         </is>
@@ -9631,12 +9512,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -9660,8 +9541,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="18" t="n"/>
-      <c r="B17" s="18" t="inlineStr">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>B4</t>
         </is>
@@ -9674,12 +9555,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -9703,8 +9584,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="18" t="n"/>
-      <c r="B18" s="18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>B5</t>
         </is>
@@ -9717,12 +9598,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -9746,8 +9627,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="18" t="n"/>
-      <c r="B19" s="18" t="inlineStr">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>B6</t>
         </is>
@@ -9760,12 +9641,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -9789,8 +9670,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="18" t="n"/>
-      <c r="B20" s="18" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
@@ -9803,12 +9684,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -9832,8 +9713,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="18" t="n"/>
-      <c r="B21" s="18" t="inlineStr">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>B8</t>
         </is>
@@ -9846,12 +9727,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -9875,8 +9756,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="18" t="n"/>
-      <c r="B22" s="18" t="inlineStr">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>B9</t>
         </is>
@@ -9889,12 +9770,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -9918,8 +9799,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="18" t="n"/>
-      <c r="B23" s="18" t="inlineStr">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>B10</t>
         </is>
@@ -9932,12 +9813,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -9961,8 +9842,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="18" t="n"/>
-      <c r="B24" s="18" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>B11</t>
         </is>
@@ -9975,12 +9856,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -10004,8 +9885,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="18" t="n"/>
-      <c r="B25" s="18" t="inlineStr">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>B12</t>
         </is>
@@ -10018,12 +9899,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -10045,8 +9926,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="18" t="n"/>
-      <c r="B26" s="18" t="inlineStr">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>C1</t>
         </is>
@@ -10059,12 +9940,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -10088,8 +9969,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="18" t="n"/>
-      <c r="B27" s="18" t="inlineStr">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>C2</t>
         </is>
@@ -10102,12 +9983,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -10131,8 +10012,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="18" t="n"/>
-      <c r="B28" s="18" t="inlineStr">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
@@ -10145,12 +10026,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -10174,8 +10055,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="18" t="n"/>
-      <c r="B29" s="18" t="inlineStr">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>C4</t>
         </is>
@@ -10188,12 +10069,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -10217,8 +10098,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="18" t="n"/>
-      <c r="B30" s="18" t="inlineStr">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>C5</t>
         </is>
@@ -10231,12 +10112,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -10260,8 +10141,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="18" t="n"/>
-      <c r="B31" s="18" t="inlineStr">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>C6</t>
         </is>
@@ -10274,12 +10155,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -10303,8 +10184,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="18" t="n"/>
-      <c r="B32" s="18" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>C7</t>
         </is>
@@ -10317,12 +10198,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -10346,8 +10227,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="18" t="n"/>
-      <c r="B33" s="18" t="inlineStr">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>C8</t>
         </is>
@@ -10360,12 +10241,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -10389,8 +10270,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="18" t="n"/>
-      <c r="B34" s="18" t="inlineStr">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="1" t="inlineStr">
         <is>
           <t>C9</t>
         </is>
@@ -10403,12 +10284,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -10432,8 +10313,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="18" t="n"/>
-      <c r="B35" s="18" t="inlineStr">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="1" t="inlineStr">
         <is>
           <t>C10</t>
         </is>
@@ -10446,12 +10327,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -10475,8 +10356,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="18" t="n"/>
-      <c r="B36" s="18" t="inlineStr">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="1" t="inlineStr">
         <is>
           <t>C11</t>
         </is>
@@ -10489,12 +10370,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -10518,8 +10399,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="18" t="n"/>
-      <c r="B37" s="18" t="inlineStr">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="1" t="inlineStr">
         <is>
           <t>C12</t>
         </is>
@@ -10532,12 +10413,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -10559,8 +10440,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="18" t="n"/>
-      <c r="B38" s="18" t="inlineStr">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="1" t="inlineStr">
         <is>
           <t>D1</t>
         </is>
@@ -10573,12 +10454,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -10602,8 +10483,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="18" t="n"/>
-      <c r="B39" s="18" t="inlineStr">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="1" t="inlineStr">
         <is>
           <t>D2</t>
         </is>
@@ -10616,12 +10497,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -10645,8 +10526,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="18" t="n"/>
-      <c r="B40" s="18" t="inlineStr">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="1" t="inlineStr">
         <is>
           <t>D3</t>
         </is>
@@ -10659,12 +10540,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -10688,8 +10569,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="18" t="n"/>
-      <c r="B41" s="18" t="inlineStr">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="1" t="inlineStr">
         <is>
           <t>D4</t>
         </is>
@@ -10702,12 +10583,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -10731,8 +10612,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="18" t="n"/>
-      <c r="B42" s="18" t="inlineStr">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="1" t="inlineStr">
         <is>
           <t>D5</t>
         </is>
@@ -10745,12 +10626,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -10774,8 +10655,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="18" t="n"/>
-      <c r="B43" s="18" t="inlineStr">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="1" t="inlineStr">
         <is>
           <t>D6</t>
         </is>
@@ -10788,12 +10669,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -10817,8 +10698,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="18" t="n"/>
-      <c r="B44" s="18" t="inlineStr">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="1" t="inlineStr">
         <is>
           <t>D7</t>
         </is>
@@ -10831,12 +10712,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -10860,8 +10741,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="18" t="n"/>
-      <c r="B45" s="18" t="inlineStr">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="1" t="inlineStr">
         <is>
           <t>D8</t>
         </is>
@@ -10874,12 +10755,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -10903,8 +10784,8 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="18" t="n"/>
-      <c r="B46" s="18" t="inlineStr">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="1" t="inlineStr">
         <is>
           <t>D9</t>
         </is>
@@ -10917,12 +10798,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -10946,8 +10827,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="18" t="n"/>
-      <c r="B47" s="18" t="inlineStr">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="1" t="inlineStr">
         <is>
           <t>D10</t>
         </is>
@@ -10960,12 +10841,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -10989,8 +10870,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="18" t="n"/>
-      <c r="B48" s="18" t="inlineStr">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="1" t="inlineStr">
         <is>
           <t>D11</t>
         </is>
@@ -11003,12 +10884,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -11032,8 +10913,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="18" t="n"/>
-      <c r="B49" s="18" t="inlineStr">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="1" t="inlineStr">
         <is>
           <t>D12</t>
         </is>
@@ -11046,12 +10927,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>530.0 nanometer</t>
+          <t>488.0 nanometer</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>488.0 nanometer</t>
+          <t>530.0 nanometer</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -11073,8 +10954,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="18" t="n"/>
-      <c r="B50" s="18" t="inlineStr">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="1" t="inlineStr">
         <is>
           <t>E1</t>
         </is>
@@ -11116,8 +10997,8 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="18" t="n"/>
-      <c r="B51" s="18" t="inlineStr">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="1" t="inlineStr">
         <is>
           <t>E2</t>
         </is>
@@ -11159,8 +11040,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="18" t="n"/>
-      <c r="B52" s="18" t="inlineStr">
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="1" t="inlineStr">
         <is>
           <t>E3</t>
         </is>
@@ -11202,8 +11083,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="18" t="n"/>
-      <c r="B53" s="18" t="inlineStr">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="1" t="inlineStr">
         <is>
           <t>E4</t>
         </is>
@@ -11245,8 +11126,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="18" t="n"/>
-      <c r="B54" s="18" t="inlineStr">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="1" t="inlineStr">
         <is>
           <t>E5</t>
         </is>
@@ -11288,8 +11169,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="18" t="n"/>
-      <c r="B55" s="18" t="inlineStr">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="1" t="inlineStr">
         <is>
           <t>E6</t>
         </is>
@@ -11331,8 +11212,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="18" t="n"/>
-      <c r="B56" s="18" t="inlineStr">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="1" t="inlineStr">
         <is>
           <t>E7</t>
         </is>
@@ -11374,8 +11255,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="18" t="n"/>
-      <c r="B57" s="18" t="inlineStr">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="1" t="inlineStr">
         <is>
           <t>E8</t>
         </is>
@@ -11417,8 +11298,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="18" t="n"/>
-      <c r="B58" s="18" t="inlineStr">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="1" t="inlineStr">
         <is>
           <t>E9</t>
         </is>
@@ -11460,8 +11341,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="18" t="n"/>
-      <c r="B59" s="18" t="inlineStr">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="1" t="inlineStr">
         <is>
           <t>E10</t>
         </is>
@@ -11503,8 +11384,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="18" t="n"/>
-      <c r="B60" s="18" t="inlineStr">
+      <c r="A60" s="1" t="n"/>
+      <c r="B60" s="1" t="inlineStr">
         <is>
           <t>E11</t>
         </is>
@@ -11546,8 +11427,8 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="18" t="n"/>
-      <c r="B61" s="18" t="inlineStr">
+      <c r="A61" s="1" t="n"/>
+      <c r="B61" s="1" t="inlineStr">
         <is>
           <t>E12</t>
         </is>
@@ -11587,8 +11468,8 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="18" t="n"/>
-      <c r="B62" s="18" t="inlineStr">
+      <c r="A62" s="1" t="n"/>
+      <c r="B62" s="1" t="inlineStr">
         <is>
           <t>F1</t>
         </is>
@@ -11630,8 +11511,8 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="18" t="n"/>
-      <c r="B63" s="18" t="inlineStr">
+      <c r="A63" s="1" t="n"/>
+      <c r="B63" s="1" t="inlineStr">
         <is>
           <t>F2</t>
         </is>
@@ -11673,8 +11554,8 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="18" t="n"/>
-      <c r="B64" s="18" t="inlineStr">
+      <c r="A64" s="1" t="n"/>
+      <c r="B64" s="1" t="inlineStr">
         <is>
           <t>F3</t>
         </is>
@@ -11716,8 +11597,8 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="18" t="n"/>
-      <c r="B65" s="18" t="inlineStr">
+      <c r="A65" s="1" t="n"/>
+      <c r="B65" s="1" t="inlineStr">
         <is>
           <t>F4</t>
         </is>
@@ -11759,8 +11640,8 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="18" t="n"/>
-      <c r="B66" s="18" t="inlineStr">
+      <c r="A66" s="1" t="n"/>
+      <c r="B66" s="1" t="inlineStr">
         <is>
           <t>F5</t>
         </is>
@@ -11802,8 +11683,8 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="18" t="n"/>
-      <c r="B67" s="18" t="inlineStr">
+      <c r="A67" s="1" t="n"/>
+      <c r="B67" s="1" t="inlineStr">
         <is>
           <t>F6</t>
         </is>
@@ -11845,8 +11726,8 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="18" t="n"/>
-      <c r="B68" s="18" t="inlineStr">
+      <c r="A68" s="1" t="n"/>
+      <c r="B68" s="1" t="inlineStr">
         <is>
           <t>F7</t>
         </is>
@@ -11888,8 +11769,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="18" t="n"/>
-      <c r="B69" s="18" t="inlineStr">
+      <c r="A69" s="1" t="n"/>
+      <c r="B69" s="1" t="inlineStr">
         <is>
           <t>F8</t>
         </is>
@@ -11931,8 +11812,8 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="18" t="n"/>
-      <c r="B70" s="18" t="inlineStr">
+      <c r="A70" s="1" t="n"/>
+      <c r="B70" s="1" t="inlineStr">
         <is>
           <t>F9</t>
         </is>
@@ -11974,8 +11855,8 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="18" t="n"/>
-      <c r="B71" s="18" t="inlineStr">
+      <c r="A71" s="1" t="n"/>
+      <c r="B71" s="1" t="inlineStr">
         <is>
           <t>F10</t>
         </is>
@@ -12017,8 +11898,8 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="18" t="n"/>
-      <c r="B72" s="18" t="inlineStr">
+      <c r="A72" s="1" t="n"/>
+      <c r="B72" s="1" t="inlineStr">
         <is>
           <t>F11</t>
         </is>
@@ -12060,8 +11941,8 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="18" t="n"/>
-      <c r="B73" s="18" t="inlineStr">
+      <c r="A73" s="1" t="n"/>
+      <c r="B73" s="1" t="inlineStr">
         <is>
           <t>F12</t>
         </is>
@@ -12101,8 +11982,8 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="18" t="n"/>
-      <c r="B74" s="18" t="inlineStr">
+      <c r="A74" s="1" t="n"/>
+      <c r="B74" s="1" t="inlineStr">
         <is>
           <t>G1</t>
         </is>
@@ -12144,8 +12025,8 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="18" t="n"/>
-      <c r="B75" s="18" t="inlineStr">
+      <c r="A75" s="1" t="n"/>
+      <c r="B75" s="1" t="inlineStr">
         <is>
           <t>G2</t>
         </is>
@@ -12187,8 +12068,8 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="18" t="n"/>
-      <c r="B76" s="18" t="inlineStr">
+      <c r="A76" s="1" t="n"/>
+      <c r="B76" s="1" t="inlineStr">
         <is>
           <t>G3</t>
         </is>
@@ -12230,8 +12111,8 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="18" t="n"/>
-      <c r="B77" s="18" t="inlineStr">
+      <c r="A77" s="1" t="n"/>
+      <c r="B77" s="1" t="inlineStr">
         <is>
           <t>G4</t>
         </is>
@@ -12273,8 +12154,8 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="18" t="n"/>
-      <c r="B78" s="18" t="inlineStr">
+      <c r="A78" s="1" t="n"/>
+      <c r="B78" s="1" t="inlineStr">
         <is>
           <t>G5</t>
         </is>
@@ -12316,8 +12197,8 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="18" t="n"/>
-      <c r="B79" s="18" t="inlineStr">
+      <c r="A79" s="1" t="n"/>
+      <c r="B79" s="1" t="inlineStr">
         <is>
           <t>G6</t>
         </is>
@@ -12359,8 +12240,8 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="18" t="n"/>
-      <c r="B80" s="18" t="inlineStr">
+      <c r="A80" s="1" t="n"/>
+      <c r="B80" s="1" t="inlineStr">
         <is>
           <t>G7</t>
         </is>
@@ -12402,8 +12283,8 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="18" t="n"/>
-      <c r="B81" s="18" t="inlineStr">
+      <c r="A81" s="1" t="n"/>
+      <c r="B81" s="1" t="inlineStr">
         <is>
           <t>G8</t>
         </is>
@@ -12445,8 +12326,8 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="18" t="n"/>
-      <c r="B82" s="18" t="inlineStr">
+      <c r="A82" s="1" t="n"/>
+      <c r="B82" s="1" t="inlineStr">
         <is>
           <t>G9</t>
         </is>
@@ -12488,8 +12369,8 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="18" t="n"/>
-      <c r="B83" s="18" t="inlineStr">
+      <c r="A83" s="1" t="n"/>
+      <c r="B83" s="1" t="inlineStr">
         <is>
           <t>G10</t>
         </is>
@@ -12531,8 +12412,8 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="18" t="n"/>
-      <c r="B84" s="18" t="inlineStr">
+      <c r="A84" s="1" t="n"/>
+      <c r="B84" s="1" t="inlineStr">
         <is>
           <t>G11</t>
         </is>
@@ -12574,8 +12455,8 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="18" t="n"/>
-      <c r="B85" s="18" t="inlineStr">
+      <c r="A85" s="1" t="n"/>
+      <c r="B85" s="1" t="inlineStr">
         <is>
           <t>G12</t>
         </is>
@@ -12615,8 +12496,8 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="18" t="n"/>
-      <c r="B86" s="18" t="inlineStr">
+      <c r="A86" s="1" t="n"/>
+      <c r="B86" s="1" t="inlineStr">
         <is>
           <t>H1</t>
         </is>
@@ -12658,8 +12539,8 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="18" t="n"/>
-      <c r="B87" s="18" t="inlineStr">
+      <c r="A87" s="1" t="n"/>
+      <c r="B87" s="1" t="inlineStr">
         <is>
           <t>H2</t>
         </is>
@@ -12701,8 +12582,8 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="18" t="n"/>
-      <c r="B88" s="18" t="inlineStr">
+      <c r="A88" s="1" t="n"/>
+      <c r="B88" s="1" t="inlineStr">
         <is>
           <t>H3</t>
         </is>
@@ -12744,8 +12625,8 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="18" t="n"/>
-      <c r="B89" s="18" t="inlineStr">
+      <c r="A89" s="1" t="n"/>
+      <c r="B89" s="1" t="inlineStr">
         <is>
           <t>H4</t>
         </is>
@@ -12787,8 +12668,8 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="18" t="n"/>
-      <c r="B90" s="18" t="inlineStr">
+      <c r="A90" s="1" t="n"/>
+      <c r="B90" s="1" t="inlineStr">
         <is>
           <t>H5</t>
         </is>
@@ -12830,8 +12711,8 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="18" t="n"/>
-      <c r="B91" s="18" t="inlineStr">
+      <c r="A91" s="1" t="n"/>
+      <c r="B91" s="1" t="inlineStr">
         <is>
           <t>H6</t>
         </is>
@@ -12873,8 +12754,8 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="18" t="n"/>
-      <c r="B92" s="18" t="inlineStr">
+      <c r="A92" s="1" t="n"/>
+      <c r="B92" s="1" t="inlineStr">
         <is>
           <t>H7</t>
         </is>
@@ -12916,8 +12797,8 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="18" t="n"/>
-      <c r="B93" s="18" t="inlineStr">
+      <c r="A93" s="1" t="n"/>
+      <c r="B93" s="1" t="inlineStr">
         <is>
           <t>H8</t>
         </is>
@@ -12959,8 +12840,8 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="18" t="n"/>
-      <c r="B94" s="18" t="inlineStr">
+      <c r="A94" s="1" t="n"/>
+      <c r="B94" s="1" t="inlineStr">
         <is>
           <t>H9</t>
         </is>
@@ -13002,8 +12883,8 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="18" t="n"/>
-      <c r="B95" s="18" t="inlineStr">
+      <c r="A95" s="1" t="n"/>
+      <c r="B95" s="1" t="inlineStr">
         <is>
           <t>H10</t>
         </is>
@@ -13045,8 +12926,8 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="18" t="n"/>
-      <c r="B96" s="18" t="inlineStr">
+      <c r="A96" s="1" t="n"/>
+      <c r="B96" s="1" t="inlineStr">
         <is>
           <t>H11</t>
         </is>
@@ -13088,8 +12969,8 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="18" t="n"/>
-      <c r="B97" s="18" t="inlineStr">
+      <c r="A97" s="1" t="n"/>
+      <c r="B97" s="1" t="inlineStr">
         <is>
           <t>H12</t>
         </is>
